--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_10.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>129115.3846660672</v>
+        <v>122190.461070488</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14051634.27896189</v>
+        <v>14051634.27896188</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12348828.71284415</v>
+        <v>12348828.71284416</v>
       </c>
     </row>
     <row r="9">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="C2" t="n">
-        <v>390.1527797502169</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>7.537471181140739</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -712,19 +712,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>132.9702822142387</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -740,13 +740,13 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C3" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>115.7281862028015</v>
       </c>
       <c r="E3" t="n">
-        <v>119.2878878475953</v>
+        <v>113.6904655427732</v>
       </c>
       <c r="F3" t="n">
         <v>107.8702810193205</v>
@@ -758,7 +758,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I3" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -797,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>159.6908732144031</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W3" t="n">
         <v>211.1008365810345</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>48.01732390352666</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>27.35334490128957</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,76 +895,76 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>143.2003641082727</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>254.489886823085</v>
+      </c>
+      <c r="V5" t="n">
+        <v>346.3391791168841</v>
+      </c>
+      <c r="W5" t="n">
+        <v>379.9226978561831</v>
+      </c>
+      <c r="X5" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="C5" t="n">
-        <v>390.1527797502169</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>343.6465684039911</v>
-      </c>
       <c r="Y5" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,16 +974,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>138.9000023092308</v>
+        <v>76.41457054545425</v>
       </c>
       <c r="C6" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>115.7281862028015</v>
       </c>
       <c r="E6" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>107.8702810193205</v>
@@ -992,10 +992,10 @@
         <v>105.9202115588047</v>
       </c>
       <c r="H6" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1028,13 +1028,13 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V6" t="n">
-        <v>159.6908732144031</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W6" t="n">
         <v>211.1008365810345</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>58.87768236127997</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>77.72590661309998</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1104,16 +1104,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>276.2789678462144</v>
@@ -1135,16 +1135,16 @@
         <v>390.1527797502169</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>343.646568403991</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>353.8766502980249</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1220,19 +1220,19 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E9" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>105.9202115588047</v>
+        <v>18.64994027580487</v>
       </c>
       <c r="H9" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1265,13 +1265,13 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V9" t="n">
-        <v>159.6908732144031</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W9" t="n">
         <v>211.1008365810345</v>
@@ -1305,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>55.34845016949781</v>
       </c>
       <c r="I10" t="n">
-        <v>82.85798684944112</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
         <v>184.5278504388888</v>
@@ -1359,7 +1359,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1372,25 +1372,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>343.646568403991</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>46.07723789946568</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1454,7 +1454,7 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D12" t="n">
-        <v>43.03006696964045</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>119.2878878475953</v>
@@ -1463,13 +1463,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G12" t="n">
-        <v>105.9202115588047</v>
+        <v>64.96840278655242</v>
       </c>
       <c r="H12" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1514,7 +1514,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y12" t="n">
         <v>157.8079400398083</v>
@@ -1539,10 +1539,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>82.85798684944118</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>237.1532516330649</v>
@@ -1590,13 +1590,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>120.9929327919254</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1612,19 +1612,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="G14" t="n">
-        <v>343.646568403991</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,13 +1660,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>341.6784094701709</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1691,16 +1691,16 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D15" t="n">
-        <v>27.46801669177194</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>3.066183145785636</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>157.7484451748619</v>
@@ -1745,7 +1745,7 @@
         <v>195.3773027531635</v>
       </c>
       <c r="V15" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>211.1008365810345</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>279.9701659793371</v>
@@ -1827,13 +1827,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>61.85448057698041</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>29.06736062834969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1858,10 +1858,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>7.537471181140626</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>341.6784094701709</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1925,10 +1925,10 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C18" t="n">
-        <v>132.6551205385437</v>
+        <v>40.8352493827204</v>
       </c>
       <c r="D18" t="n">
-        <v>15.09023863101106</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>119.2878878475953</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T18" t="n">
         <v>157.7484451748619</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>14.00015960958915</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>29.01192689817271</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2055,16 +2055,16 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>235.9604235189134</v>
@@ -2086,19 +2086,19 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>115.9008527225315</v>
       </c>
       <c r="E20" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="G20" t="n">
-        <v>167.4757498247141</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
         <v>219.9844192126098</v>
@@ -2165,22 +2165,22 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D21" t="n">
-        <v>115.7281862028015</v>
+        <v>7.916809453839443</v>
       </c>
       <c r="E21" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2222,10 +2222,10 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W21" t="n">
-        <v>177.1553300324198</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y21" t="n">
         <v>157.8079400398083</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>159.3017069803637</v>
@@ -2253,13 +2253,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>58.11593919665227</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>218.5100299953708</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2320,7 +2320,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>32.95238632371646</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2374,10 +2374,10 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>184.4858442804941</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>82.98068721474552</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>72.1533939828054</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
         <v>148.1113806425979</v>
@@ -2526,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>222.4883416251229</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="C26" t="n">
-        <v>268.3884052419273</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
       <c r="G26" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,16 +2608,16 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>303.138642751846</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C27" t="n">
         <v>132.6551205385437</v>
@@ -2642,10 +2642,10 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E27" t="n">
-        <v>119.2878878475953</v>
+        <v>18.64994027580487</v>
       </c>
       <c r="F27" t="n">
-        <v>38.26205473744033</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>99.34786620648758</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>190.0172314573885</v>
       </c>
     </row>
     <row r="29">
@@ -2803,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2845,19 +2845,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>345.3811968772827</v>
       </c>
       <c r="W29" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>179.4404601920395</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>38.26205473744036</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C30" t="n">
         <v>132.6551205385437</v>
@@ -2879,13 +2879,13 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E30" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>18.64994027580487</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2952,7 +2952,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>149.6084750272259</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>48.57570989689641</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
         <v>222.4883416251229</v>
@@ -3034,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>390.1527797502169</v>
       </c>
       <c r="G32" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3088,16 +3088,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>343.6465684039911</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>263.7619864775174</v>
       </c>
     </row>
     <row r="33">
@@ -3113,13 +3113,13 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>15.09023863101106</v>
       </c>
       <c r="E33" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F33" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>157.7484451748619</v>
@@ -3167,7 +3167,7 @@
         <v>195.3773027531635</v>
       </c>
       <c r="V33" t="n">
-        <v>11.88425956175261</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W33" t="n">
         <v>211.1008365810345</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>97.41495318207505</v>
       </c>
       <c r="C34" t="n">
-        <v>53.92978098120693</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
         <v>157.8996982303191</v>
@@ -3204,10 +3204,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3265,76 +3265,76 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>379.8866644877579</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="C35" t="n">
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>133.9282644538401</v>
+      </c>
+      <c r="T35" t="n">
+        <v>219.9844192126098</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>390.1527797502169</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>343.646568403991</v>
       </c>
     </row>
     <row r="36">
@@ -3398,22 +3398,22 @@
         <v>106.9101097868343</v>
       </c>
       <c r="T36" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V36" t="n">
         <v>211.5744117368965</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>209.8416530668096</v>
       </c>
       <c r="X36" t="n">
-        <v>89.66257060530309</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,10 +3435,10 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>61.62463035284611</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>197.9216756840683</v>
       </c>
     </row>
     <row r="38">
@@ -3514,16 +3514,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>72.08725208919876</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>5.569312247320619</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3587,10 +3587,10 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D39" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3599,7 +3599,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>15.09023863101106</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>157.7484451748619</v>
@@ -3641,7 +3641,7 @@
         <v>195.3773027531635</v>
       </c>
       <c r="V39" t="n">
-        <v>123.314242225867</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W39" t="n">
         <v>211.1008365810345</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>187.4453585027454</v>
       </c>
       <c r="Y40" t="n">
-        <v>193.8549411709696</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3757,10 +3757,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>7.537471181140739</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>166.0755005935659</v>
       </c>
       <c r="X41" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3818,16 +3818,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>132.6551205385437</v>
       </c>
       <c r="D42" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>107.8702810193205</v>
@@ -3836,10 +3836,10 @@
         <v>105.9202115588047</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3872,19 +3872,19 @@
         <v>106.9101097868343</v>
       </c>
       <c r="T42" t="n">
-        <v>157.7484451748619</v>
+        <v>19.74512529713611</v>
       </c>
       <c r="U42" t="n">
         <v>195.3773027531635</v>
       </c>
       <c r="V42" t="n">
-        <v>175.8994204236772</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y42" t="n">
         <v>157.8079400398083</v>
@@ -3912,13 +3912,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>27.35334490128957</v>
+        <v>123.5859670628298</v>
       </c>
       <c r="Y43" t="n">
         <v>222.4883416251229</v>
@@ -3997,7 +3997,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4033,19 +4033,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>300.0037650474061</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>216.2455984370728</v>
       </c>
     </row>
     <row r="45">
@@ -4061,19 +4061,19 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>15.09023863101106</v>
       </c>
       <c r="E45" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F45" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,19 +4106,19 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>157.7484451748619</v>
       </c>
       <c r="U45" t="n">
-        <v>30.82803476560852</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V45" t="n">
         <v>211.5744117368965</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X45" t="n">
         <v>174.5627220424961</v>
@@ -4137,10 +4137,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>12.20793317630127</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>159.3017069803637</v>
@@ -4149,13 +4149,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>257.5337154314566</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>425.3059392994284</v>
+        <v>432.9195465531059</v>
       </c>
       <c r="C2" t="n">
-        <v>31.21222238001735</v>
+        <v>432.9195465531059</v>
       </c>
       <c r="D2" t="n">
-        <v>31.21222238001735</v>
+        <v>432.9195465531059</v>
       </c>
       <c r="E2" t="n">
-        <v>31.21222238001735</v>
+        <v>432.9195465531059</v>
       </c>
       <c r="F2" t="n">
-        <v>31.21222238001735</v>
+        <v>432.9195465531059</v>
       </c>
       <c r="G2" t="n">
-        <v>31.21222238001735</v>
+        <v>38.82582963369487</v>
       </c>
       <c r="H2" t="n">
         <v>31.21222238001735</v>
@@ -4339,13 +4339,13 @@
         <v>671.6489458004863</v>
       </c>
       <c r="M2" t="n">
-        <v>1057.900197753201</v>
+        <v>788.1086150954382</v>
       </c>
       <c r="N2" t="n">
-        <v>1444.151449705916</v>
+        <v>1174.359867048153</v>
       </c>
       <c r="O2" t="n">
-        <v>1560.611119000868</v>
+        <v>1174.359867048153</v>
       </c>
       <c r="P2" t="n">
         <v>1560.611119000868</v>
@@ -4360,22 +4360,22 @@
         <v>1560.611119000868</v>
       </c>
       <c r="T2" t="n">
-        <v>1426.297702622849</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="U2" t="n">
-        <v>1169.237210882359</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="V2" t="n">
-        <v>819.3996562188394</v>
+        <v>1210.773564337348</v>
       </c>
       <c r="W2" t="n">
-        <v>819.3996562188394</v>
+        <v>827.0132634725169</v>
       </c>
       <c r="X2" t="n">
-        <v>819.3996562188394</v>
+        <v>432.9195465531059</v>
       </c>
       <c r="Y2" t="n">
-        <v>819.3996562188394</v>
+        <v>432.9195465531059</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>710.0430642665517</v>
+        <v>549.6454397116748</v>
       </c>
       <c r="C3" t="n">
-        <v>576.0479930154975</v>
+        <v>549.6454397116748</v>
       </c>
       <c r="D3" t="n">
-        <v>459.1508352348899</v>
+        <v>432.7482819310673</v>
       </c>
       <c r="E3" t="n">
-        <v>338.6580192272179</v>
+        <v>317.909427847458</v>
       </c>
       <c r="F3" t="n">
-        <v>229.6981394097224</v>
+        <v>208.9495480299626</v>
       </c>
       <c r="G3" t="n">
-        <v>122.7080267240611</v>
+        <v>101.9594353443013</v>
       </c>
       <c r="H3" t="n">
-        <v>51.96081375977718</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I3" t="n">
         <v>31.21222238001735</v>
@@ -4415,46 +4415,46 @@
         <v>610.2763318953653</v>
       </c>
       <c r="L3" t="n">
-        <v>996.52758384808</v>
+        <v>788.1086150954382</v>
       </c>
       <c r="M3" t="n">
-        <v>1181.207134954254</v>
+        <v>1174.359867048153</v>
       </c>
       <c r="N3" t="n">
-        <v>1181.207134954254</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="O3" t="n">
-        <v>1181.207134954254</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="P3" t="n">
-        <v>1181.207134954254</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Q3" t="n">
-        <v>1531.051599638238</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R3" t="n">
         <v>1560.611119000868</v>
       </c>
       <c r="S3" t="n">
-        <v>1560.611119000868</v>
+        <v>1452.621109115176</v>
       </c>
       <c r="T3" t="n">
-        <v>1560.611119000868</v>
+        <v>1452.621109115176</v>
       </c>
       <c r="U3" t="n">
-        <v>1560.611119000868</v>
+        <v>1452.621109115176</v>
       </c>
       <c r="V3" t="n">
-        <v>1399.307206663087</v>
+        <v>1238.90958210821</v>
       </c>
       <c r="W3" t="n">
-        <v>1186.074038399415</v>
+        <v>1025.676413844539</v>
       </c>
       <c r="X3" t="n">
-        <v>1009.748056538308</v>
+        <v>849.3504319834315</v>
       </c>
       <c r="Y3" t="n">
-        <v>850.3460969021384</v>
+        <v>689.9484723472615</v>
       </c>
     </row>
     <row r="4">
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1120.546072681154</v>
+        <v>198.4626134544739</v>
       </c>
       <c r="C4" t="n">
-        <v>949.4527002428704</v>
+        <v>198.4626134544739</v>
       </c>
       <c r="D4" t="n">
-        <v>789.9580555657803</v>
+        <v>198.4626134544739</v>
       </c>
       <c r="E4" t="n">
-        <v>629.0472404340999</v>
+        <v>198.4626134544739</v>
       </c>
       <c r="F4" t="n">
-        <v>464.4161145446911</v>
+        <v>198.4626134544739</v>
       </c>
       <c r="G4" t="n">
-        <v>297.1657234702345</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H4" t="n">
-        <v>147.5582682756912</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I4" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J4" t="n">
-        <v>45.29477178522814</v>
+        <v>45.29477178522787</v>
       </c>
       <c r="K4" t="n">
-        <v>199.8470995074661</v>
+        <v>199.8470995074659</v>
       </c>
       <c r="L4" t="n">
-        <v>459.7441997875267</v>
+        <v>459.7441997875264</v>
       </c>
       <c r="M4" t="n">
-        <v>749.0082562280199</v>
+        <v>749.0082562280197</v>
       </c>
       <c r="N4" t="n">
         <v>1029.84703862227</v>
@@ -4512,28 +4512,28 @@
         <v>1560.611119000868</v>
       </c>
       <c r="R4" t="n">
-        <v>1560.611119000868</v>
+        <v>1512.108771623568</v>
       </c>
       <c r="S4" t="n">
-        <v>1560.611119000868</v>
+        <v>1512.108771623568</v>
       </c>
       <c r="T4" t="n">
-        <v>1560.611119000868</v>
+        <v>1272.56003260027</v>
       </c>
       <c r="U4" t="n">
-        <v>1560.611119000868</v>
+        <v>989.7618851463942</v>
       </c>
       <c r="V4" t="n">
-        <v>1560.611119000868</v>
+        <v>715.8761400859162</v>
       </c>
       <c r="W4" t="n">
-        <v>1560.611119000868</v>
+        <v>436.8064755947905</v>
       </c>
       <c r="X4" t="n">
-        <v>1532.981477686434</v>
+        <v>198.4626134544739</v>
       </c>
       <c r="Y4" t="n">
-        <v>1308.245779075198</v>
+        <v>198.4626134544739</v>
       </c>
     </row>
     <row r="5">
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>425.3059392994284</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="C5" t="n">
         <v>31.21222238001735</v>
@@ -4567,22 +4567,22 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J5" t="n">
-        <v>285.3976938477716</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="K5" t="n">
-        <v>671.6489458004863</v>
+        <v>417.4634743327321</v>
       </c>
       <c r="L5" t="n">
-        <v>1057.900197753201</v>
+        <v>417.4634743327321</v>
       </c>
       <c r="M5" t="n">
-        <v>1198.893466516011</v>
+        <v>417.4634743327321</v>
       </c>
       <c r="N5" t="n">
-        <v>1198.893466516011</v>
+        <v>426.3909626105813</v>
       </c>
       <c r="O5" t="n">
-        <v>1198.893466516011</v>
+        <v>812.642214563296</v>
       </c>
       <c r="P5" t="n">
         <v>1198.893466516011</v>
@@ -4600,19 +4600,19 @@
         <v>1560.611119000868</v>
       </c>
       <c r="U5" t="n">
-        <v>1560.611119000868</v>
+        <v>1303.550627260378</v>
       </c>
       <c r="V5" t="n">
-        <v>1560.611119000868</v>
+        <v>953.7130725968584</v>
       </c>
       <c r="W5" t="n">
-        <v>1560.611119000868</v>
+        <v>569.952771732027</v>
       </c>
       <c r="X5" t="n">
-        <v>1213.49337313825</v>
+        <v>175.859054812616</v>
       </c>
       <c r="Y5" t="n">
-        <v>819.3996562188394</v>
+        <v>175.859054812616</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>710.0430642665517</v>
+        <v>364.0593726637816</v>
       </c>
       <c r="C6" t="n">
-        <v>576.0479930154975</v>
+        <v>364.0593726637816</v>
       </c>
       <c r="D6" t="n">
-        <v>459.1508352348899</v>
+        <v>247.1622148831741</v>
       </c>
       <c r="E6" t="n">
-        <v>338.6580192272179</v>
+        <v>247.1622148831741</v>
       </c>
       <c r="F6" t="n">
-        <v>229.6981394097224</v>
+        <v>138.2023350656787</v>
       </c>
       <c r="G6" t="n">
-        <v>122.7080267240611</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H6" t="n">
-        <v>51.96081375977718</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I6" t="n">
         <v>31.21222238001735</v>
@@ -4652,22 +4652,22 @@
         <v>610.2763318953653</v>
       </c>
       <c r="L6" t="n">
+        <v>610.2763318953653</v>
+      </c>
+      <c r="M6" t="n">
         <v>996.52758384808</v>
       </c>
-      <c r="M6" t="n">
-        <v>1382.778835800795</v>
-      </c>
       <c r="N6" t="n">
-        <v>1531.051599638238</v>
+        <v>996.52758384808</v>
       </c>
       <c r="O6" t="n">
-        <v>1531.051599638238</v>
+        <v>1210.766654316884</v>
       </c>
       <c r="P6" t="n">
-        <v>1531.051599638238</v>
+        <v>1210.766654316884</v>
       </c>
       <c r="Q6" t="n">
-        <v>1531.051599638238</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R6" t="n">
         <v>1560.611119000868</v>
@@ -4676,22 +4676,22 @@
         <v>1560.611119000868</v>
       </c>
       <c r="T6" t="n">
-        <v>1560.611119000868</v>
+        <v>1401.269255187876</v>
       </c>
       <c r="U6" t="n">
-        <v>1560.611119000868</v>
+        <v>1203.918444326094</v>
       </c>
       <c r="V6" t="n">
-        <v>1399.307206663087</v>
+        <v>990.2069173191283</v>
       </c>
       <c r="W6" t="n">
-        <v>1186.074038399415</v>
+        <v>776.973749055457</v>
       </c>
       <c r="X6" t="n">
-        <v>1009.748056538308</v>
+        <v>600.6477671943499</v>
       </c>
       <c r="Y6" t="n">
-        <v>850.3460969021384</v>
+        <v>441.2458075581799</v>
       </c>
     </row>
     <row r="7">
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>202.3055948183008</v>
+        <v>109.7232391609264</v>
       </c>
       <c r="C7" t="n">
-        <v>31.21222238001735</v>
+        <v>109.7232391609264</v>
       </c>
       <c r="D7" t="n">
-        <v>31.21222238001735</v>
+        <v>109.7232391609264</v>
       </c>
       <c r="E7" t="n">
-        <v>31.21222238001735</v>
+        <v>109.7232391609264</v>
       </c>
       <c r="F7" t="n">
-        <v>31.21222238001735</v>
+        <v>109.7232391609264</v>
       </c>
       <c r="G7" t="n">
         <v>31.21222238001735</v>
@@ -4725,10 +4725,10 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J7" t="n">
-        <v>45.29477178522787</v>
+        <v>45.29477178522814</v>
       </c>
       <c r="K7" t="n">
-        <v>199.8470995074659</v>
+        <v>199.8470995074661</v>
       </c>
       <c r="L7" t="n">
         <v>459.7441997875267</v>
@@ -4752,25 +4752,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S7" t="n">
-        <v>1560.611119000868</v>
+        <v>1374.219350880778</v>
       </c>
       <c r="T7" t="n">
-        <v>1560.611119000868</v>
+        <v>1134.67061185748</v>
       </c>
       <c r="U7" t="n">
-        <v>1277.812971546992</v>
+        <v>851.872464403604</v>
       </c>
       <c r="V7" t="n">
-        <v>1003.927226486514</v>
+        <v>851.872464403604</v>
       </c>
       <c r="W7" t="n">
-        <v>724.8575619953881</v>
+        <v>572.8027999124783</v>
       </c>
       <c r="X7" t="n">
-        <v>486.5136998550715</v>
+        <v>334.4589377721617</v>
       </c>
       <c r="Y7" t="n">
-        <v>261.7780012438362</v>
+        <v>109.7232391609264</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>31.21222238001735</v>
+        <v>1166.517402081457</v>
       </c>
       <c r="C8" t="n">
-        <v>31.21222238001735</v>
+        <v>819.3996562188394</v>
       </c>
       <c r="D8" t="n">
-        <v>31.21222238001735</v>
+        <v>819.3996562188394</v>
       </c>
       <c r="E8" t="n">
-        <v>31.21222238001735</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="F8" t="n">
         <v>31.21222238001735</v>
@@ -4813,13 +4813,13 @@
         <v>671.6489458004863</v>
       </c>
       <c r="M8" t="n">
-        <v>1057.900197753201</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="N8" t="n">
-        <v>1198.893466516011</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="O8" t="n">
-        <v>1198.893466516011</v>
+        <v>812.642214563296</v>
       </c>
       <c r="P8" t="n">
         <v>1198.893466516011</v>
@@ -4843,13 +4843,13 @@
         <v>1560.611119000868</v>
       </c>
       <c r="W8" t="n">
-        <v>1176.850818136036</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="X8" t="n">
-        <v>819.3996562188394</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Y8" t="n">
-        <v>425.3059392994284</v>
+        <v>1560.611119000868</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>710.0430642665517</v>
+        <v>300.9427749225932</v>
       </c>
       <c r="C9" t="n">
-        <v>576.0479930154975</v>
+        <v>166.9477036715389</v>
       </c>
       <c r="D9" t="n">
-        <v>459.1508352348899</v>
+        <v>50.05054589093136</v>
       </c>
       <c r="E9" t="n">
-        <v>338.6580192272179</v>
+        <v>50.05054589093136</v>
       </c>
       <c r="F9" t="n">
-        <v>229.6981394097224</v>
+        <v>50.05054589093136</v>
       </c>
       <c r="G9" t="n">
-        <v>122.7080267240611</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H9" t="n">
-        <v>51.96081375977718</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I9" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J9" t="n">
-        <v>31.21222238001735</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="K9" t="n">
-        <v>31.21222238001735</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L9" t="n">
-        <v>417.4634743327321</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="M9" t="n">
-        <v>803.7147262854468</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="N9" t="n">
-        <v>1144.800347685523</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="O9" t="n">
-        <v>1144.800347685523</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="P9" t="n">
-        <v>1531.051599638238</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="Q9" t="n">
         <v>1531.051599638238</v>
@@ -4913,22 +4913,22 @@
         <v>1560.611119000868</v>
       </c>
       <c r="T9" t="n">
-        <v>1560.611119000868</v>
+        <v>1401.269255187876</v>
       </c>
       <c r="U9" t="n">
-        <v>1560.611119000868</v>
+        <v>1203.918444326094</v>
       </c>
       <c r="V9" t="n">
-        <v>1399.307206663087</v>
+        <v>990.2069173191283</v>
       </c>
       <c r="W9" t="n">
-        <v>1186.074038399415</v>
+        <v>776.973749055457</v>
       </c>
       <c r="X9" t="n">
-        <v>1009.748056538308</v>
+        <v>600.6477671943499</v>
       </c>
       <c r="Y9" t="n">
-        <v>850.3460969021384</v>
+        <v>441.2458075581799</v>
       </c>
     </row>
     <row r="10">
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>114.907158591574</v>
+        <v>254.3701388782091</v>
       </c>
       <c r="C10" t="n">
-        <v>114.907158591574</v>
+        <v>254.3701388782091</v>
       </c>
       <c r="D10" t="n">
-        <v>114.907158591574</v>
+        <v>254.3701388782091</v>
       </c>
       <c r="E10" t="n">
-        <v>114.907158591574</v>
+        <v>254.3701388782091</v>
       </c>
       <c r="F10" t="n">
-        <v>114.907158591574</v>
+        <v>254.3701388782091</v>
       </c>
       <c r="G10" t="n">
-        <v>114.907158591574</v>
+        <v>87.11974780375252</v>
       </c>
       <c r="H10" t="n">
-        <v>114.907158591574</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I10" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J10" t="n">
-        <v>45.29477178522779</v>
+        <v>45.29477178522787</v>
       </c>
       <c r="K10" t="n">
-        <v>199.8470995074658</v>
+        <v>199.8470995074661</v>
       </c>
       <c r="L10" t="n">
-        <v>459.7441997875263</v>
+        <v>459.7441997875267</v>
       </c>
       <c r="M10" t="n">
-        <v>749.0082562280195</v>
+        <v>749.0082562280199</v>
       </c>
       <c r="N10" t="n">
         <v>1029.84703862227</v>
@@ -4980,34 +4980,34 @@
         <v>1289.407648948744</v>
       </c>
       <c r="P10" t="n">
-        <v>1495.083089198356</v>
+        <v>1495.083089198357</v>
       </c>
       <c r="Q10" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R10" t="n">
-        <v>1560.611119000867</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="S10" t="n">
-        <v>1374.219350880778</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="T10" t="n">
-        <v>1134.67061185748</v>
+        <v>1049.39789353288</v>
       </c>
       <c r="U10" t="n">
-        <v>851.872464403604</v>
+        <v>766.5997460790038</v>
       </c>
       <c r="V10" t="n">
-        <v>577.986719343126</v>
+        <v>492.7140010185257</v>
       </c>
       <c r="W10" t="n">
-        <v>577.986719343126</v>
+        <v>492.7140010185257</v>
       </c>
       <c r="X10" t="n">
-        <v>339.6428572028094</v>
+        <v>254.3701388782091</v>
       </c>
       <c r="Y10" t="n">
-        <v>114.907158591574</v>
+        <v>254.3701388782091</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1560.611119000868</v>
+        <v>1176.850818136036</v>
       </c>
       <c r="C11" t="n">
-        <v>1166.517402081457</v>
+        <v>1176.850818136036</v>
       </c>
       <c r="D11" t="n">
-        <v>772.4236851620456</v>
+        <v>1176.850818136036</v>
       </c>
       <c r="E11" t="n">
-        <v>425.3059392994284</v>
+        <v>1176.850818136036</v>
       </c>
       <c r="F11" t="n">
-        <v>31.21222238001735</v>
+        <v>782.7571012166252</v>
       </c>
       <c r="G11" t="n">
-        <v>31.21222238001735</v>
+        <v>388.6633842972142</v>
       </c>
       <c r="H11" t="n">
-        <v>31.21222238001735</v>
+        <v>77.75488692493218</v>
       </c>
       <c r="I11" t="n">
         <v>31.21222238001735</v>
@@ -5050,13 +5050,13 @@
         <v>671.6489458004863</v>
       </c>
       <c r="M11" t="n">
-        <v>1057.900197753201</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="N11" t="n">
-        <v>1198.893466516011</v>
+        <v>812.642214563296</v>
       </c>
       <c r="O11" t="n">
-        <v>1198.893466516011</v>
+        <v>812.642214563296</v>
       </c>
       <c r="P11" t="n">
         <v>1198.893466516011</v>
@@ -5080,13 +5080,13 @@
         <v>1560.611119000868</v>
       </c>
       <c r="W11" t="n">
-        <v>1560.611119000868</v>
+        <v>1176.850818136036</v>
       </c>
       <c r="X11" t="n">
-        <v>1560.611119000868</v>
+        <v>1176.850818136036</v>
       </c>
       <c r="Y11" t="n">
-        <v>1560.611119000868</v>
+        <v>1176.850818136036</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>636.6106205966921</v>
+        <v>460.284638735585</v>
       </c>
       <c r="C12" t="n">
-        <v>502.6155493456378</v>
+        <v>326.2895674845307</v>
       </c>
       <c r="D12" t="n">
-        <v>459.1508352348899</v>
+        <v>326.2895674845307</v>
       </c>
       <c r="E12" t="n">
-        <v>338.6580192272179</v>
+        <v>205.7967514768586</v>
       </c>
       <c r="F12" t="n">
-        <v>229.6981394097224</v>
+        <v>96.83687165936323</v>
       </c>
       <c r="G12" t="n">
-        <v>122.7080267240611</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H12" t="n">
-        <v>51.96081375977718</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I12" t="n">
         <v>31.21222238001735</v>
@@ -5129,16 +5129,16 @@
         <v>610.2763318953653</v>
       </c>
       <c r="M12" t="n">
-        <v>996.52758384808</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="N12" t="n">
-        <v>1382.778835800795</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="O12" t="n">
-        <v>1382.778835800795</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="P12" t="n">
-        <v>1382.778835800795</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="Q12" t="n">
         <v>1531.051599638238</v>
@@ -5162,10 +5162,10 @@
         <v>936.3156128684487</v>
       </c>
       <c r="X12" t="n">
-        <v>936.3156128684487</v>
+        <v>759.9896310073416</v>
       </c>
       <c r="Y12" t="n">
-        <v>776.9136532322788</v>
+        <v>600.5876713711716</v>
       </c>
     </row>
     <row r="13">
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>31.21222238001735</v>
+        <v>363.0937393438827</v>
       </c>
       <c r="C13" t="n">
-        <v>31.21222238001735</v>
+        <v>363.0937393438827</v>
       </c>
       <c r="D13" t="n">
-        <v>31.21222238001735</v>
+        <v>363.0937393438827</v>
       </c>
       <c r="E13" t="n">
-        <v>31.21222238001735</v>
+        <v>363.0937393438827</v>
       </c>
       <c r="F13" t="n">
-        <v>31.21222238001735</v>
+        <v>198.4626134544739</v>
       </c>
       <c r="G13" t="n">
         <v>31.21222238001735</v>
@@ -5202,13 +5202,13 @@
         <v>45.29477178522787</v>
       </c>
       <c r="K13" t="n">
-        <v>199.8470995074661</v>
+        <v>199.8470995074659</v>
       </c>
       <c r="L13" t="n">
-        <v>459.7441997875267</v>
+        <v>459.7441997875264</v>
       </c>
       <c r="M13" t="n">
-        <v>749.0082562280199</v>
+        <v>749.0082562280197</v>
       </c>
       <c r="N13" t="n">
         <v>1029.84703862227</v>
@@ -5223,28 +5223,28 @@
         <v>1560.611119000868</v>
       </c>
       <c r="R13" t="n">
-        <v>1476.916182789311</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S13" t="n">
-        <v>1290.524414669221</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T13" t="n">
-        <v>1050.975675645923</v>
+        <v>1321.06237997757</v>
       </c>
       <c r="U13" t="n">
-        <v>768.1775281920474</v>
+        <v>1038.264232523694</v>
       </c>
       <c r="V13" t="n">
-        <v>494.2917831315693</v>
+        <v>764.3784874632158</v>
       </c>
       <c r="W13" t="n">
-        <v>494.2917831315693</v>
+        <v>485.3088229720902</v>
       </c>
       <c r="X13" t="n">
-        <v>255.9479209912527</v>
+        <v>363.0937393438827</v>
       </c>
       <c r="Y13" t="n">
-        <v>31.21222238001735</v>
+        <v>363.0937393438827</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1560.611119000868</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="C14" t="n">
-        <v>1560.611119000868</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="D14" t="n">
-        <v>1166.517402081457</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="E14" t="n">
-        <v>772.4236851620456</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="F14" t="n">
-        <v>378.3299682426345</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="G14" t="n">
-        <v>31.21222238001735</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="H14" t="n">
         <v>31.21222238001735</v>
@@ -5278,25 +5278,25 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J14" t="n">
-        <v>31.21222238001735</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="K14" t="n">
-        <v>31.21222238001735</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="L14" t="n">
-        <v>31.21222238001735</v>
+        <v>1057.900197753201</v>
       </c>
       <c r="M14" t="n">
-        <v>40.13971065786654</v>
+        <v>1444.151449705916</v>
       </c>
       <c r="N14" t="n">
-        <v>426.3909626105813</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="O14" t="n">
-        <v>812.642214563296</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="P14" t="n">
-        <v>1198.893466516011</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="Q14" t="n">
         <v>1520.054473311303</v>
@@ -5308,22 +5308,22 @@
         <v>1560.611119000868</v>
       </c>
       <c r="T14" t="n">
-        <v>1560.611119000868</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="U14" t="n">
-        <v>1560.611119000868</v>
+        <v>1081.344143207237</v>
       </c>
       <c r="V14" t="n">
-        <v>1560.611119000868</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="W14" t="n">
-        <v>1560.611119000868</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="X14" t="n">
-        <v>1560.611119000868</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="Y14" t="n">
-        <v>1560.611119000868</v>
+        <v>736.2144366717104</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>192.9527650369019</v>
+        <v>514.6543019295594</v>
       </c>
       <c r="C15" t="n">
-        <v>58.9576937858476</v>
+        <v>380.6592306785051</v>
       </c>
       <c r="D15" t="n">
-        <v>31.21222238001735</v>
+        <v>263.7620728978976</v>
       </c>
       <c r="E15" t="n">
-        <v>31.21222238001735</v>
+        <v>143.2692568902255</v>
       </c>
       <c r="F15" t="n">
-        <v>31.21222238001735</v>
+        <v>34.30937707273011</v>
       </c>
       <c r="G15" t="n">
         <v>31.21222238001735</v>
@@ -5360,49 +5360,49 @@
         <v>224.0250799426506</v>
       </c>
       <c r="K15" t="n">
-        <v>224.0250799426506</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L15" t="n">
-        <v>224.0250799426506</v>
+        <v>996.52758384808</v>
       </c>
       <c r="M15" t="n">
-        <v>610.2763318953653</v>
+        <v>1174.359867048153</v>
       </c>
       <c r="N15" t="n">
-        <v>610.2763318953653</v>
+        <v>1174.359867048153</v>
       </c>
       <c r="O15" t="n">
-        <v>996.52758384808</v>
+        <v>1174.359867048153</v>
       </c>
       <c r="P15" t="n">
-        <v>1382.778835800795</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Q15" t="n">
-        <v>1531.051599638238</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R15" t="n">
         <v>1560.611119000868</v>
       </c>
       <c r="S15" t="n">
-        <v>1452.621109115176</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T15" t="n">
-        <v>1293.279245302185</v>
+        <v>1401.269255187876</v>
       </c>
       <c r="U15" t="n">
-        <v>1095.928434440403</v>
+        <v>1203.918444326094</v>
       </c>
       <c r="V15" t="n">
-        <v>882.216907433437</v>
+        <v>1203.918444326094</v>
       </c>
       <c r="W15" t="n">
-        <v>668.9837391697657</v>
+        <v>990.6852760624232</v>
       </c>
       <c r="X15" t="n">
-        <v>492.6577573086585</v>
+        <v>814.3592942013161</v>
       </c>
       <c r="Y15" t="n">
-        <v>333.2557976724885</v>
+        <v>654.9573345651461</v>
       </c>
     </row>
     <row r="16">
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>31.21222238001735</v>
+        <v>668.4755284577877</v>
       </c>
       <c r="C16" t="n">
-        <v>31.21222238001735</v>
+        <v>668.4755284577877</v>
       </c>
       <c r="D16" t="n">
-        <v>31.21222238001735</v>
+        <v>508.9808837806978</v>
       </c>
       <c r="E16" t="n">
-        <v>31.21222238001735</v>
+        <v>348.0700686490173</v>
       </c>
       <c r="F16" t="n">
-        <v>31.21222238001735</v>
+        <v>348.0700686490173</v>
       </c>
       <c r="G16" t="n">
-        <v>31.21222238001735</v>
+        <v>180.8196775745607</v>
       </c>
       <c r="H16" t="n">
         <v>31.21222238001735</v>
@@ -5454,34 +5454,34 @@
         <v>1289.407648948744</v>
       </c>
       <c r="P16" t="n">
-        <v>1495.083089198356</v>
+        <v>1495.083089198357</v>
       </c>
       <c r="Q16" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R16" t="n">
-        <v>1560.611119000867</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="S16" t="n">
-        <v>1374.219350880778</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="T16" t="n">
-        <v>1134.67061185748</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="U16" t="n">
-        <v>851.872464403604</v>
+        <v>1192.540253222391</v>
       </c>
       <c r="V16" t="n">
-        <v>577.986719343126</v>
+        <v>918.6545081619133</v>
       </c>
       <c r="W16" t="n">
-        <v>298.9170548520003</v>
+        <v>856.1752348518321</v>
       </c>
       <c r="X16" t="n">
-        <v>60.5731927116837</v>
+        <v>856.1752348518321</v>
       </c>
       <c r="Y16" t="n">
-        <v>31.21222238001735</v>
+        <v>856.1752348518321</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.21222238001735</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="C17" t="n">
-        <v>31.21222238001735</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="D17" t="n">
-        <v>31.21222238001735</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="E17" t="n">
-        <v>31.21222238001735</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="F17" t="n">
-        <v>31.21222238001735</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="G17" t="n">
-        <v>31.21222238001735</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="H17" t="n">
         <v>31.21222238001735</v>
@@ -5515,19 +5515,19 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J17" t="n">
-        <v>31.21222238001735</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="K17" t="n">
-        <v>31.21222238001735</v>
+        <v>361.3007174531585</v>
       </c>
       <c r="L17" t="n">
-        <v>361.3007174531585</v>
+        <v>747.5519694058733</v>
       </c>
       <c r="M17" t="n">
-        <v>747.5519694058733</v>
+        <v>1133.803221358588</v>
       </c>
       <c r="N17" t="n">
-        <v>1133.803221358588</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="O17" t="n">
         <v>1520.054473311303</v>
@@ -5545,22 +5545,22 @@
         <v>1560.611119000868</v>
       </c>
       <c r="T17" t="n">
-        <v>1560.611119000868</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="U17" t="n">
-        <v>1552.99751174719</v>
+        <v>1081.344143207237</v>
       </c>
       <c r="V17" t="n">
-        <v>1203.159957083671</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="W17" t="n">
-        <v>819.3996562188394</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="X17" t="n">
-        <v>425.3059392994284</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.21222238001735</v>
+        <v>736.2144366717104</v>
       </c>
     </row>
     <row r="18">
@@ -5570,10 +5570,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>300.9427749225932</v>
+        <v>192.9527650369019</v>
       </c>
       <c r="C18" t="n">
-        <v>166.9477036715389</v>
+        <v>151.7050383876894</v>
       </c>
       <c r="D18" t="n">
         <v>151.7050383876894</v>
@@ -5594,52 +5594,52 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J18" t="n">
-        <v>31.21222238001735</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="K18" t="n">
-        <v>417.4634743327321</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L18" t="n">
-        <v>803.7147262854468</v>
+        <v>824.5154023641696</v>
       </c>
       <c r="M18" t="n">
-        <v>1144.800347685523</v>
+        <v>824.5154023641696</v>
       </c>
       <c r="N18" t="n">
-        <v>1531.051599638238</v>
+        <v>824.5154023641696</v>
       </c>
       <c r="O18" t="n">
-        <v>1531.051599638238</v>
+        <v>824.5154023641696</v>
       </c>
       <c r="P18" t="n">
-        <v>1531.051599638238</v>
+        <v>1210.766654316884</v>
       </c>
       <c r="Q18" t="n">
-        <v>1531.051599638238</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R18" t="n">
         <v>1560.611119000868</v>
       </c>
       <c r="S18" t="n">
-        <v>1560.611119000868</v>
+        <v>1452.621109115176</v>
       </c>
       <c r="T18" t="n">
-        <v>1401.269255187876</v>
+        <v>1293.279245302185</v>
       </c>
       <c r="U18" t="n">
-        <v>1203.918444326094</v>
+        <v>1095.928434440403</v>
       </c>
       <c r="V18" t="n">
-        <v>990.2069173191283</v>
+        <v>882.216907433437</v>
       </c>
       <c r="W18" t="n">
-        <v>776.973749055457</v>
+        <v>668.9837391697657</v>
       </c>
       <c r="X18" t="n">
-        <v>600.6477671943499</v>
+        <v>492.6577573086585</v>
       </c>
       <c r="Y18" t="n">
-        <v>441.2458075581799</v>
+        <v>333.2557976724885</v>
       </c>
     </row>
     <row r="19">
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>392.5213866148023</v>
+        <v>340.3143222516507</v>
       </c>
       <c r="C19" t="n">
-        <v>221.4280141765188</v>
+        <v>340.3143222516507</v>
       </c>
       <c r="D19" t="n">
-        <v>221.4280141765188</v>
+        <v>180.8196775745607</v>
       </c>
       <c r="E19" t="n">
-        <v>60.51719904483826</v>
+        <v>180.8196775745607</v>
       </c>
       <c r="F19" t="n">
-        <v>60.51719904483826</v>
+        <v>180.8196775745607</v>
       </c>
       <c r="G19" t="n">
-        <v>31.21222238001734</v>
+        <v>180.8196775745607</v>
       </c>
       <c r="H19" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I19" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="J19" t="n">
         <v>45.29477178522787</v>
       </c>
       <c r="K19" t="n">
-        <v>199.8470995074658</v>
+        <v>199.8470995074659</v>
       </c>
       <c r="L19" t="n">
         <v>459.7441997875264</v>
@@ -5703,22 +5703,22 @@
         <v>1374.219350880778</v>
       </c>
       <c r="T19" t="n">
-        <v>1134.67061185748</v>
+        <v>1374.219350880778</v>
       </c>
       <c r="U19" t="n">
-        <v>1134.67061185748</v>
+        <v>1091.421203426902</v>
       </c>
       <c r="V19" t="n">
-        <v>1134.67061185748</v>
+        <v>817.5354583664239</v>
       </c>
       <c r="W19" t="n">
-        <v>855.6009473663541</v>
+        <v>817.5354583664239</v>
       </c>
       <c r="X19" t="n">
-        <v>617.2570852260376</v>
+        <v>579.1915962261073</v>
       </c>
       <c r="Y19" t="n">
-        <v>392.5213866148023</v>
+        <v>354.455897614872</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>988.5670802842071</v>
+        <v>853.2860050783079</v>
       </c>
       <c r="C20" t="n">
-        <v>988.5670802842071</v>
+        <v>853.2860050783079</v>
       </c>
       <c r="D20" t="n">
-        <v>988.5670802842071</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="E20" t="n">
-        <v>594.4733633647961</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="F20" t="n">
-        <v>200.3796464453851</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="G20" t="n">
-        <v>31.21222238001735</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="H20" t="n">
         <v>31.21222238001735</v>
@@ -5752,25 +5752,25 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J20" t="n">
-        <v>31.21222238001735</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="K20" t="n">
-        <v>417.4634743327321</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="L20" t="n">
-        <v>803.7147262854468</v>
+        <v>426.3909626105813</v>
       </c>
       <c r="M20" t="n">
-        <v>1189.965978238161</v>
+        <v>426.3909626105813</v>
       </c>
       <c r="N20" t="n">
-        <v>1520.054473311303</v>
+        <v>426.3909626105813</v>
       </c>
       <c r="O20" t="n">
-        <v>1520.054473311303</v>
+        <v>812.642214563296</v>
       </c>
       <c r="P20" t="n">
-        <v>1520.054473311303</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="Q20" t="n">
         <v>1520.054473311303</v>
@@ -5779,25 +5779,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S20" t="n">
-        <v>1560.611119000868</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="T20" t="n">
-        <v>1338.404634947726</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="U20" t="n">
-        <v>1338.404634947726</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="V20" t="n">
-        <v>988.5670802842071</v>
+        <v>853.2860050783079</v>
       </c>
       <c r="W20" t="n">
-        <v>988.5670802842071</v>
+        <v>853.2860050783079</v>
       </c>
       <c r="X20" t="n">
-        <v>988.5670802842071</v>
+        <v>853.2860050783079</v>
       </c>
       <c r="Y20" t="n">
-        <v>988.5670802842071</v>
+        <v>853.2860050783079</v>
       </c>
     </row>
     <row r="21">
@@ -5807,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>511.5571472368467</v>
+        <v>300.9427749225932</v>
       </c>
       <c r="C21" t="n">
-        <v>377.5620759857924</v>
+        <v>166.9477036715389</v>
       </c>
       <c r="D21" t="n">
-        <v>260.6649182051848</v>
+        <v>158.9509264454385</v>
       </c>
       <c r="E21" t="n">
-        <v>140.1721021975128</v>
+        <v>158.9509264454385</v>
       </c>
       <c r="F21" t="n">
-        <v>31.21222238001735</v>
+        <v>158.9509264454385</v>
       </c>
       <c r="G21" t="n">
-        <v>31.21222238001735</v>
+        <v>51.96081375977718</v>
       </c>
       <c r="H21" t="n">
-        <v>31.21222238001735</v>
+        <v>51.96081375977718</v>
       </c>
       <c r="I21" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J21" t="n">
-        <v>224.0250799426506</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="K21" t="n">
-        <v>610.2763318953653</v>
+        <v>417.4634743327321</v>
       </c>
       <c r="L21" t="n">
-        <v>610.2763318953653</v>
+        <v>758.5490957328082</v>
       </c>
       <c r="M21" t="n">
-        <v>610.2763318953653</v>
+        <v>1144.800347685523</v>
       </c>
       <c r="N21" t="n">
-        <v>996.52758384808</v>
+        <v>1531.051599638238</v>
       </c>
       <c r="O21" t="n">
-        <v>996.52758384808</v>
+        <v>1531.051599638238</v>
       </c>
       <c r="P21" t="n">
-        <v>1181.207134954254</v>
+        <v>1531.051599638238</v>
       </c>
       <c r="Q21" t="n">
         <v>1531.051599638238</v>
@@ -5870,13 +5870,13 @@
         <v>990.2069173191283</v>
       </c>
       <c r="W21" t="n">
-        <v>811.2621395086032</v>
+        <v>776.973749055457</v>
       </c>
       <c r="X21" t="n">
-        <v>811.2621395086032</v>
+        <v>600.6477671943499</v>
       </c>
       <c r="Y21" t="n">
-        <v>651.8601798724333</v>
+        <v>441.2458075581799</v>
       </c>
     </row>
     <row r="22">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1062.902995670987</v>
+        <v>506.36161859565</v>
       </c>
       <c r="C22" t="n">
-        <v>891.8096232327039</v>
+        <v>506.36161859565</v>
       </c>
       <c r="D22" t="n">
-        <v>732.3149785556138</v>
+        <v>506.36161859565</v>
       </c>
       <c r="E22" t="n">
-        <v>571.4041634239334</v>
+        <v>345.4508034639695</v>
       </c>
       <c r="F22" t="n">
-        <v>406.7730375345246</v>
+        <v>180.8196775745607</v>
       </c>
       <c r="G22" t="n">
-        <v>239.522646460068</v>
+        <v>180.8196775745607</v>
       </c>
       <c r="H22" t="n">
-        <v>89.9151912655247</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I22" t="n">
         <v>31.21222238001735</v>
@@ -5937,25 +5937,25 @@
         <v>1475.338400676267</v>
       </c>
       <c r="S22" t="n">
-        <v>1475.338400676267</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="T22" t="n">
-        <v>1475.338400676267</v>
+        <v>1068.229430540651</v>
       </c>
       <c r="U22" t="n">
-        <v>1475.338400676267</v>
+        <v>785.4312830867757</v>
       </c>
       <c r="V22" t="n">
-        <v>1475.338400676267</v>
+        <v>785.4312830867757</v>
       </c>
       <c r="W22" t="n">
-        <v>1475.338400676267</v>
+        <v>506.36161859565</v>
       </c>
       <c r="X22" t="n">
-        <v>1475.338400676267</v>
+        <v>506.36161859565</v>
       </c>
       <c r="Y22" t="n">
-        <v>1250.602702065032</v>
+        <v>506.36161859565</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>877.1357131590178</v>
+        <v>1320.545542556572</v>
       </c>
       <c r="C23" t="n">
-        <v>877.1357131590178</v>
+        <v>910.4209518698425</v>
       </c>
       <c r="D23" t="n">
-        <v>877.1357131590178</v>
+        <v>910.4209518698425</v>
       </c>
       <c r="E23" t="n">
-        <v>462.7954976759145</v>
+        <v>496.0807363867392</v>
       </c>
       <c r="F23" t="n">
-        <v>41.76508562960205</v>
+        <v>75.05032434042676</v>
       </c>
       <c r="G23" t="n">
-        <v>41.76508562960205</v>
+        <v>75.05032434042676</v>
       </c>
       <c r="H23" t="n">
-        <v>41.76508562960205</v>
+        <v>75.05032434042676</v>
       </c>
       <c r="I23" t="n">
         <v>41.76508562960205</v>
@@ -5992,19 +5992,19 @@
         <v>295.9505570973564</v>
       </c>
       <c r="K23" t="n">
-        <v>295.9505570973564</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L23" t="n">
         <v>812.7934917636817</v>
       </c>
       <c r="M23" t="n">
-        <v>1329.636426430007</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N23" t="n">
-        <v>1329.636426430007</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="O23" t="n">
-        <v>1329.636426430007</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P23" t="n">
         <v>1726.536628995245</v>
@@ -6022,19 +6022,19 @@
         <v>1730.766722221062</v>
       </c>
       <c r="U23" t="n">
-        <v>1473.706230480572</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V23" t="n">
-        <v>1287.356892823507</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="W23" t="n">
-        <v>1287.356892823507</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="X23" t="n">
-        <v>1287.356892823507</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="Y23" t="n">
-        <v>1287.356892823507</v>
+        <v>1730.766722221062</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>720.595927516136</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C24" t="n">
-        <v>586.6008562650818</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D24" t="n">
-        <v>469.7036984844742</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E24" t="n">
-        <v>349.2108824768022</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F24" t="n">
-        <v>240.2510026593068</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G24" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H24" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I24" t="n">
         <v>41.76508562960205</v>
@@ -6074,19 +6074,19 @@
         <v>497.5713418949007</v>
       </c>
       <c r="L24" t="n">
-        <v>1014.414276561226</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="M24" t="n">
-        <v>1014.414276561226</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="N24" t="n">
-        <v>1531.257211227551</v>
+        <v>704.7239474634683</v>
       </c>
       <c r="O24" t="n">
-        <v>2048.100145893876</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="P24" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q24" t="n">
         <v>2088.254281480102</v>
@@ -6101,19 +6101,19 @@
         <v>1820.922407781419</v>
       </c>
       <c r="U24" t="n">
-        <v>1623.571596919637</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V24" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W24" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X24" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y24" t="n">
-        <v>860.8989601517226</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1437.475014334506</v>
+        <v>519.5337470302825</v>
       </c>
       <c r="C25" t="n">
-        <v>1266.381641896222</v>
+        <v>519.5337470302825</v>
       </c>
       <c r="D25" t="n">
-        <v>1106.886997219132</v>
+        <v>519.5337470302825</v>
       </c>
       <c r="E25" t="n">
-        <v>945.9761820874519</v>
+        <v>358.622931898602</v>
       </c>
       <c r="F25" t="n">
-        <v>781.3450561980432</v>
+        <v>358.622931898602</v>
       </c>
       <c r="G25" t="n">
-        <v>708.4628400537953</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H25" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I25" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J25" t="n">
-        <v>572.9379342644625</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K25" t="n">
-        <v>727.4902619867005</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L25" t="n">
-        <v>987.3873622667611</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M25" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N25" t="n">
-        <v>1557.490201101505</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O25" t="n">
-        <v>1817.050811427979</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P25" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q25" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R25" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S25" t="n">
-        <v>2088.254281480102</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T25" t="n">
-        <v>2088.254281480102</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="U25" t="n">
-        <v>2088.254281480102</v>
+        <v>1101.974066676486</v>
       </c>
       <c r="V25" t="n">
-        <v>2088.254281480102</v>
+        <v>828.0883216160082</v>
       </c>
       <c r="W25" t="n">
-        <v>2088.254281480102</v>
+        <v>828.0883216160082</v>
       </c>
       <c r="X25" t="n">
-        <v>1849.910419339786</v>
+        <v>828.0883216160082</v>
       </c>
       <c r="Y25" t="n">
-        <v>1625.17472072855</v>
+        <v>603.3526230047729</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>782.7571012166252</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="C26" t="n">
-        <v>511.6577019823552</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="D26" t="n">
-        <v>511.6577019823552</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="E26" t="n">
-        <v>511.6577019823552</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="F26" t="n">
-        <v>511.6577019823552</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G26" t="n">
-        <v>117.5639850629442</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H26" t="n">
-        <v>117.5639850629442</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I26" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J26" t="n">
-        <v>31.21222238001735</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="K26" t="n">
-        <v>417.4634743327321</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="L26" t="n">
-        <v>803.7147262854468</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="M26" t="n">
-        <v>803.7147262854468</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="N26" t="n">
-        <v>803.7147262854468</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="O26" t="n">
         <v>812.642214563296</v>
@@ -6256,22 +6256,22 @@
         <v>1560.611119000868</v>
       </c>
       <c r="T26" t="n">
-        <v>1560.611119000868</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="U26" t="n">
-        <v>1560.611119000868</v>
+        <v>1081.344143207237</v>
       </c>
       <c r="V26" t="n">
-        <v>1560.611119000868</v>
+        <v>731.5065885437173</v>
       </c>
       <c r="W26" t="n">
-        <v>1176.850818136036</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="X26" t="n">
-        <v>1176.850818136036</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="Y26" t="n">
-        <v>1176.850818136036</v>
+        <v>425.3059392994284</v>
       </c>
     </row>
     <row r="27">
@@ -6281,16 +6281,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>441.2458075581799</v>
+        <v>300.9427749225932</v>
       </c>
       <c r="C27" t="n">
-        <v>307.2507363071256</v>
+        <v>166.9477036715389</v>
       </c>
       <c r="D27" t="n">
-        <v>190.353578526518</v>
+        <v>50.05054589093136</v>
       </c>
       <c r="E27" t="n">
-        <v>69.86076251884597</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F27" t="n">
         <v>31.21222238001735</v>
@@ -6314,10 +6314,10 @@
         <v>610.2763318953653</v>
       </c>
       <c r="M27" t="n">
-        <v>996.52758384808</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="N27" t="n">
-        <v>1181.207134954254</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="O27" t="n">
         <v>1181.207134954254</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>298.8139934610271</v>
+        <v>522.7110546270713</v>
       </c>
       <c r="C28" t="n">
-        <v>298.8139934610271</v>
+        <v>351.6176821887879</v>
       </c>
       <c r="D28" t="n">
-        <v>298.8139934610271</v>
+        <v>192.1230375116979</v>
       </c>
       <c r="E28" t="n">
-        <v>298.8139934610271</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F28" t="n">
-        <v>198.4626134544739</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G28" t="n">
         <v>31.21222238001735</v>
@@ -6408,28 +6408,28 @@
         <v>1560.611119000868</v>
       </c>
       <c r="R28" t="n">
-        <v>1560.611119000868</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="S28" t="n">
-        <v>1560.611119000868</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="T28" t="n">
-        <v>1560.611119000868</v>
+        <v>1235.789661652969</v>
       </c>
       <c r="U28" t="n">
-        <v>1277.812971546992</v>
+        <v>952.9915141990934</v>
       </c>
       <c r="V28" t="n">
-        <v>1003.927226486514</v>
+        <v>952.9915141990934</v>
       </c>
       <c r="W28" t="n">
-        <v>724.8575619953881</v>
+        <v>952.9915141990934</v>
       </c>
       <c r="X28" t="n">
-        <v>486.5136998550715</v>
+        <v>714.6476520587769</v>
       </c>
       <c r="Y28" t="n">
-        <v>486.5136998550715</v>
+        <v>522.7110546270713</v>
       </c>
     </row>
     <row r="29">
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.21222238001735</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="C29" t="n">
-        <v>31.21222238001735</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="D29" t="n">
-        <v>31.21222238001735</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="E29" t="n">
-        <v>31.21222238001735</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="F29" t="n">
         <v>31.21222238001735</v>
@@ -6466,25 +6466,25 @@
         <v>285.3976938477716</v>
       </c>
       <c r="K29" t="n">
-        <v>466.9476083001462</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="L29" t="n">
-        <v>853.1988602528609</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="M29" t="n">
-        <v>853.1988602528609</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="N29" t="n">
-        <v>853.1988602528609</v>
+        <v>426.3909626105813</v>
       </c>
       <c r="O29" t="n">
-        <v>853.1988602528609</v>
+        <v>812.642214563296</v>
       </c>
       <c r="P29" t="n">
-        <v>1239.450112205576</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="Q29" t="n">
-        <v>1560.611119000868</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="R29" t="n">
         <v>1560.611119000868</v>
@@ -6493,22 +6493,22 @@
         <v>1425.330043794968</v>
       </c>
       <c r="T29" t="n">
-        <v>1203.123559741827</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="U29" t="n">
-        <v>946.0630680013373</v>
+        <v>1168.269552054478</v>
       </c>
       <c r="V29" t="n">
-        <v>596.225513337818</v>
+        <v>819.3996562188394</v>
       </c>
       <c r="W29" t="n">
-        <v>212.4652124729866</v>
+        <v>819.3996562188394</v>
       </c>
       <c r="X29" t="n">
-        <v>31.21222238001735</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.21222238001735</v>
+        <v>425.3059392994284</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>402.5972674193512</v>
+        <v>300.9427749225932</v>
       </c>
       <c r="C30" t="n">
-        <v>268.6021961682969</v>
+        <v>166.9477036715389</v>
       </c>
       <c r="D30" t="n">
-        <v>151.7050383876894</v>
+        <v>50.05054589093136</v>
       </c>
       <c r="E30" t="n">
-        <v>31.21222238001735</v>
+        <v>50.05054589093136</v>
       </c>
       <c r="F30" t="n">
-        <v>31.21222238001735</v>
+        <v>50.05054589093136</v>
       </c>
       <c r="G30" t="n">
         <v>31.21222238001735</v>
@@ -6542,28 +6542,28 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J30" t="n">
-        <v>31.21222238001735</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="K30" t="n">
-        <v>417.4634743327321</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L30" t="n">
-        <v>417.4634743327321</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="M30" t="n">
-        <v>803.7147262854468</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="N30" t="n">
-        <v>1189.965978238161</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="O30" t="n">
-        <v>1210.766654316884</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="P30" t="n">
-        <v>1210.766654316884</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="Q30" t="n">
-        <v>1560.611119000868</v>
+        <v>1531.051599638238</v>
       </c>
       <c r="R30" t="n">
         <v>1560.611119000868</v>
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.21222238001735</v>
+        <v>670.2831128319734</v>
       </c>
       <c r="C31" t="n">
-        <v>31.21222238001735</v>
+        <v>499.1897403936899</v>
       </c>
       <c r="D31" t="n">
-        <v>31.21222238001735</v>
+        <v>499.1897403936899</v>
       </c>
       <c r="E31" t="n">
-        <v>31.21222238001735</v>
+        <v>499.1897403936899</v>
       </c>
       <c r="F31" t="n">
-        <v>31.21222238001735</v>
+        <v>348.0700686490173</v>
       </c>
       <c r="G31" t="n">
-        <v>31.21222238001735</v>
+        <v>180.8196775745607</v>
       </c>
       <c r="H31" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="I31" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="J31" t="n">
         <v>45.29477178522787</v>
       </c>
       <c r="K31" t="n">
-        <v>199.8470995074658</v>
+        <v>199.8470995074659</v>
       </c>
       <c r="L31" t="n">
         <v>459.7441997875264</v>
@@ -6645,28 +6645,28 @@
         <v>1560.611119000868</v>
       </c>
       <c r="R31" t="n">
-        <v>1475.338400676267</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S31" t="n">
-        <v>1288.946632556178</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T31" t="n">
-        <v>1049.39789353288</v>
+        <v>1321.06237997757</v>
       </c>
       <c r="U31" t="n">
-        <v>766.5997460790038</v>
+        <v>1321.06237997757</v>
       </c>
       <c r="V31" t="n">
-        <v>492.7140010185257</v>
+        <v>1321.06237997757</v>
       </c>
       <c r="W31" t="n">
-        <v>443.647627385297</v>
+        <v>1321.06237997757</v>
       </c>
       <c r="X31" t="n">
-        <v>443.647627385297</v>
+        <v>1082.718517837253</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.9119287740617</v>
+        <v>857.9828192260178</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1213.49337313825</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="C32" t="n">
-        <v>1213.49337313825</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="D32" t="n">
-        <v>819.3996562188394</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="E32" t="n">
-        <v>819.3996562188394</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="F32" t="n">
-        <v>425.3059392994284</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G32" t="n">
         <v>31.21222238001735</v>
@@ -6700,22 +6700,22 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J32" t="n">
-        <v>31.21222238001735</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="K32" t="n">
-        <v>31.21222238001735</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="L32" t="n">
-        <v>417.4634743327321</v>
+        <v>1057.900197753201</v>
       </c>
       <c r="M32" t="n">
-        <v>747.5519694058733</v>
+        <v>1444.151449705916</v>
       </c>
       <c r="N32" t="n">
-        <v>1133.803221358588</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="O32" t="n">
-        <v>1133.803221358588</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="P32" t="n">
         <v>1520.054473311303</v>
@@ -6727,25 +6727,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S32" t="n">
-        <v>1560.611119000868</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="T32" t="n">
-        <v>1560.611119000868</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="U32" t="n">
-        <v>1560.611119000868</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="V32" t="n">
-        <v>1560.611119000868</v>
+        <v>1075.492489131449</v>
       </c>
       <c r="W32" t="n">
-        <v>1213.49337313825</v>
+        <v>691.7321882666176</v>
       </c>
       <c r="X32" t="n">
-        <v>1213.49337313825</v>
+        <v>691.7321882666176</v>
       </c>
       <c r="Y32" t="n">
-        <v>1213.49337313825</v>
+        <v>425.3059392994284</v>
       </c>
     </row>
     <row r="33">
@@ -6755,16 +6755,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>394.6599894562391</v>
+        <v>300.9427749225932</v>
       </c>
       <c r="C33" t="n">
-        <v>260.6649182051848</v>
+        <v>166.9477036715389</v>
       </c>
       <c r="D33" t="n">
-        <v>260.6649182051848</v>
+        <v>151.7050383876894</v>
       </c>
       <c r="E33" t="n">
-        <v>140.1721021975128</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F33" t="n">
         <v>31.21222238001735</v>
@@ -6779,52 +6779,52 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J33" t="n">
-        <v>31.21222238001735</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="K33" t="n">
-        <v>417.4634743327321</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L33" t="n">
-        <v>417.4634743327321</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="M33" t="n">
-        <v>417.4634743327321</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="N33" t="n">
-        <v>803.7147262854468</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="O33" t="n">
-        <v>1174.359867048153</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="P33" t="n">
-        <v>1560.611119000868</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="Q33" t="n">
-        <v>1560.611119000868</v>
+        <v>1531.051599638238</v>
       </c>
       <c r="R33" t="n">
         <v>1560.611119000868</v>
       </c>
       <c r="S33" t="n">
-        <v>1452.621109115176</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T33" t="n">
-        <v>1293.279245302185</v>
+        <v>1401.269255187876</v>
       </c>
       <c r="U33" t="n">
-        <v>1095.928434440403</v>
+        <v>1203.918444326094</v>
       </c>
       <c r="V33" t="n">
-        <v>1083.924131852774</v>
+        <v>990.2069173191283</v>
       </c>
       <c r="W33" t="n">
-        <v>870.6909635891029</v>
+        <v>776.973749055457</v>
       </c>
       <c r="X33" t="n">
-        <v>694.3649817279957</v>
+        <v>600.6477671943499</v>
       </c>
       <c r="Y33" t="n">
-        <v>534.9630220918257</v>
+        <v>441.2458075581799</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1003.927226486514</v>
+        <v>854.5925715909368</v>
       </c>
       <c r="C34" t="n">
-        <v>949.4527002428704</v>
+        <v>683.4991991526533</v>
       </c>
       <c r="D34" t="n">
-        <v>789.9580555657803</v>
+        <v>524.0045544755633</v>
       </c>
       <c r="E34" t="n">
-        <v>629.0472404340999</v>
+        <v>363.0937393438827</v>
       </c>
       <c r="F34" t="n">
-        <v>464.4161145446911</v>
+        <v>198.4626134544739</v>
       </c>
       <c r="G34" t="n">
-        <v>297.1657234702345</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H34" t="n">
-        <v>147.5582682756912</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I34" t="n">
         <v>31.21222238001735</v>
@@ -6882,28 +6882,28 @@
         <v>1560.611119000868</v>
       </c>
       <c r="R34" t="n">
-        <v>1560.611119000868</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="S34" t="n">
-        <v>1560.611119000868</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="T34" t="n">
-        <v>1560.611119000868</v>
+        <v>1235.789661652969</v>
       </c>
       <c r="U34" t="n">
-        <v>1277.812971546992</v>
+        <v>952.9915141990934</v>
       </c>
       <c r="V34" t="n">
-        <v>1003.927226486514</v>
+        <v>952.9915141990934</v>
       </c>
       <c r="W34" t="n">
-        <v>1003.927226486514</v>
+        <v>952.9915141990934</v>
       </c>
       <c r="X34" t="n">
-        <v>1003.927226486514</v>
+        <v>952.9915141990934</v>
       </c>
       <c r="Y34" t="n">
-        <v>1003.927226486514</v>
+        <v>952.9915141990934</v>
       </c>
     </row>
     <row r="35">
@@ -6916,13 +6916,13 @@
         <v>425.3059392994284</v>
       </c>
       <c r="C35" t="n">
-        <v>31.21222238001735</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="D35" t="n">
-        <v>31.21222238001735</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="E35" t="n">
-        <v>31.21222238001735</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="F35" t="n">
         <v>31.21222238001735</v>
@@ -6937,19 +6937,19 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J35" t="n">
-        <v>285.3976938477716</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="K35" t="n">
-        <v>285.3976938477716</v>
+        <v>417.4634743327321</v>
       </c>
       <c r="L35" t="n">
-        <v>361.3007174531585</v>
+        <v>803.7147262854468</v>
       </c>
       <c r="M35" t="n">
-        <v>747.5519694058733</v>
+        <v>1189.965978238161</v>
       </c>
       <c r="N35" t="n">
-        <v>1133.803221358588</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="O35" t="n">
         <v>1520.054473311303</v>
@@ -6964,25 +6964,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S35" t="n">
-        <v>1560.611119000868</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="T35" t="n">
-        <v>1560.611119000868</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="U35" t="n">
-        <v>1560.611119000868</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="V35" t="n">
-        <v>1560.611119000868</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="W35" t="n">
-        <v>1560.611119000868</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="X35" t="n">
-        <v>1166.517402081457</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="Y35" t="n">
-        <v>819.3996562188394</v>
+        <v>809.0298428224162</v>
       </c>
     </row>
     <row r="36">
@@ -7022,19 +7022,19 @@
         <v>610.2763318953653</v>
       </c>
       <c r="L36" t="n">
-        <v>610.2763318953653</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="M36" t="n">
-        <v>610.2763318953653</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="N36" t="n">
-        <v>996.52758384808</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="O36" t="n">
-        <v>996.52758384808</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="P36" t="n">
-        <v>1382.778835800795</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="Q36" t="n">
         <v>1531.051599638238</v>
@@ -7046,19 +7046,19 @@
         <v>1452.621109115176</v>
       </c>
       <c r="T36" t="n">
-        <v>1293.279245302185</v>
+        <v>1452.621109115176</v>
       </c>
       <c r="U36" t="n">
-        <v>1293.279245302185</v>
+        <v>1255.270298253395</v>
       </c>
       <c r="V36" t="n">
-        <v>1079.567718295218</v>
+        <v>1041.558771246429</v>
       </c>
       <c r="W36" t="n">
-        <v>1079.567718295218</v>
+        <v>829.5975055223786</v>
       </c>
       <c r="X36" t="n">
-        <v>988.9994651585486</v>
+        <v>829.5975055223786</v>
       </c>
       <c r="Y36" t="n">
         <v>829.5975055223786</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>192.1230375116979</v>
+        <v>695.0979269138468</v>
       </c>
       <c r="C37" t="n">
-        <v>192.1230375116979</v>
+        <v>524.0045544755633</v>
       </c>
       <c r="D37" t="n">
-        <v>192.1230375116979</v>
+        <v>524.0045544755633</v>
       </c>
       <c r="E37" t="n">
-        <v>31.21222238001735</v>
+        <v>363.0937393438827</v>
       </c>
       <c r="F37" t="n">
-        <v>31.21222238001735</v>
+        <v>198.4626134544739</v>
       </c>
       <c r="G37" t="n">
         <v>31.21222238001735</v>
@@ -7119,28 +7119,28 @@
         <v>1560.611119000868</v>
       </c>
       <c r="R37" t="n">
-        <v>1475.338400676267</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S37" t="n">
-        <v>1288.946632556178</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T37" t="n">
-        <v>1049.39789353288</v>
+        <v>1321.06237997757</v>
       </c>
       <c r="U37" t="n">
-        <v>766.5997460790038</v>
+        <v>1321.06237997757</v>
       </c>
       <c r="V37" t="n">
-        <v>492.7140010185257</v>
+        <v>1321.06237997757</v>
       </c>
       <c r="W37" t="n">
-        <v>430.4668996520145</v>
+        <v>1321.06237997757</v>
       </c>
       <c r="X37" t="n">
-        <v>192.1230375116979</v>
+        <v>1082.718517837253</v>
       </c>
       <c r="Y37" t="n">
-        <v>192.1230375116979</v>
+        <v>882.7976333078911</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1203.123559741827</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="C38" t="n">
-        <v>1203.123559741827</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="D38" t="n">
-        <v>1203.123559741827</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="E38" t="n">
-        <v>1203.123559741827</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="F38" t="n">
-        <v>809.0298428224162</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="G38" t="n">
-        <v>414.9361259030052</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="H38" t="n">
-        <v>104.0276285307232</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I38" t="n">
         <v>31.21222238001735</v>
@@ -7177,22 +7177,22 @@
         <v>31.21222238001735</v>
       </c>
       <c r="K38" t="n">
-        <v>417.4634743327321</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="L38" t="n">
-        <v>803.7147262854468</v>
+        <v>80.69635634743145</v>
       </c>
       <c r="M38" t="n">
-        <v>803.7147262854468</v>
+        <v>466.9476083001462</v>
       </c>
       <c r="N38" t="n">
-        <v>803.7147262854468</v>
+        <v>853.1988602528609</v>
       </c>
       <c r="O38" t="n">
-        <v>1189.965978238161</v>
+        <v>1239.450112205576</v>
       </c>
       <c r="P38" t="n">
-        <v>1560.611119000868</v>
+        <v>1239.450112205576</v>
       </c>
       <c r="Q38" t="n">
         <v>1560.611119000868</v>
@@ -7201,25 +7201,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S38" t="n">
-        <v>1425.330043794968</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T38" t="n">
-        <v>1203.123559741827</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="U38" t="n">
-        <v>1203.123559741827</v>
+        <v>1081.344143207237</v>
       </c>
       <c r="V38" t="n">
-        <v>1203.123559741827</v>
+        <v>731.5065885437173</v>
       </c>
       <c r="W38" t="n">
-        <v>1203.123559741827</v>
+        <v>347.7462876788858</v>
       </c>
       <c r="X38" t="n">
-        <v>1203.123559741827</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="Y38" t="n">
-        <v>1203.123559741827</v>
+        <v>342.1207197522994</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>282.1044514116792</v>
+        <v>300.9427749225932</v>
       </c>
       <c r="C39" t="n">
-        <v>148.1093801606249</v>
+        <v>166.9477036715389</v>
       </c>
       <c r="D39" t="n">
-        <v>31.21222238001735</v>
+        <v>166.9477036715389</v>
       </c>
       <c r="E39" t="n">
-        <v>31.21222238001735</v>
+        <v>46.45488766386691</v>
       </c>
       <c r="F39" t="n">
-        <v>31.21222238001735</v>
+        <v>46.45488766386691</v>
       </c>
       <c r="G39" t="n">
-        <v>31.21222238001735</v>
+        <v>46.45488766386691</v>
       </c>
       <c r="H39" t="n">
         <v>31.21222238001735</v>
@@ -7259,19 +7259,19 @@
         <v>610.2763318953653</v>
       </c>
       <c r="L39" t="n">
-        <v>610.2763318953653</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="M39" t="n">
-        <v>610.2763318953653</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="N39" t="n">
-        <v>996.52758384808</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="O39" t="n">
-        <v>996.52758384808</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="P39" t="n">
-        <v>1382.778835800795</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="Q39" t="n">
         <v>1531.051599638238</v>
@@ -7280,25 +7280,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S39" t="n">
-        <v>1452.621109115176</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T39" t="n">
-        <v>1293.279245302185</v>
+        <v>1401.269255187876</v>
       </c>
       <c r="U39" t="n">
-        <v>1095.928434440403</v>
+        <v>1203.918444326094</v>
       </c>
       <c r="V39" t="n">
-        <v>971.3685938082143</v>
+        <v>990.2069173191283</v>
       </c>
       <c r="W39" t="n">
-        <v>758.1354255445431</v>
+        <v>776.973749055457</v>
       </c>
       <c r="X39" t="n">
-        <v>581.8094436834358</v>
+        <v>600.6477671943499</v>
       </c>
       <c r="Y39" t="n">
-        <v>422.4074840472659</v>
+        <v>441.2458075581799</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>147.5582682756912</v>
+        <v>676.0388205793429</v>
       </c>
       <c r="C40" t="n">
-        <v>147.5582682756912</v>
+        <v>504.9454481410594</v>
       </c>
       <c r="D40" t="n">
-        <v>147.5582682756912</v>
+        <v>345.4508034639695</v>
       </c>
       <c r="E40" t="n">
-        <v>147.5582682756912</v>
+        <v>345.4508034639695</v>
       </c>
       <c r="F40" t="n">
-        <v>147.5582682756912</v>
+        <v>180.8196775745607</v>
       </c>
       <c r="G40" t="n">
-        <v>147.5582682756912</v>
+        <v>180.8196775745607</v>
       </c>
       <c r="H40" t="n">
-        <v>147.5582682756912</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I40" t="n">
         <v>31.21222238001735</v>
@@ -7359,25 +7359,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S40" t="n">
-        <v>1374.219350880778</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T40" t="n">
-        <v>1134.67061185748</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="U40" t="n">
-        <v>1134.67061185748</v>
+        <v>1277.812971546992</v>
       </c>
       <c r="V40" t="n">
-        <v>860.7848667970018</v>
+        <v>1277.812971546992</v>
       </c>
       <c r="W40" t="n">
-        <v>581.7152023058761</v>
+        <v>1277.812971546992</v>
       </c>
       <c r="X40" t="n">
-        <v>343.3713401655595</v>
+        <v>1088.474225584623</v>
       </c>
       <c r="Y40" t="n">
-        <v>147.5582682756912</v>
+        <v>863.7385269733873</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>38.82582963369487</v>
+        <v>428.4724824352262</v>
       </c>
       <c r="C41" t="n">
-        <v>38.82582963369487</v>
+        <v>428.4724824352262</v>
       </c>
       <c r="D41" t="n">
-        <v>38.82582963369487</v>
+        <v>428.4724824352262</v>
       </c>
       <c r="E41" t="n">
-        <v>38.82582963369487</v>
+        <v>428.4724824352262</v>
       </c>
       <c r="F41" t="n">
-        <v>38.82582963369487</v>
+        <v>428.4724824352262</v>
       </c>
       <c r="G41" t="n">
-        <v>38.82582963369487</v>
+        <v>428.4724824352262</v>
       </c>
       <c r="H41" t="n">
-        <v>31.21222238001735</v>
+        <v>117.5639850629442</v>
       </c>
       <c r="I41" t="n">
         <v>31.21222238001735</v>
@@ -7414,19 +7414,19 @@
         <v>285.3976938477716</v>
       </c>
       <c r="K41" t="n">
-        <v>671.6489458004863</v>
+        <v>361.3007174531585</v>
       </c>
       <c r="L41" t="n">
+        <v>361.3007174531585</v>
+      </c>
+      <c r="M41" t="n">
         <v>747.5519694058733</v>
       </c>
-      <c r="M41" t="n">
+      <c r="N41" t="n">
         <v>1133.803221358588</v>
       </c>
-      <c r="N41" t="n">
-        <v>1520.054473311303</v>
-      </c>
       <c r="O41" t="n">
-        <v>1520.054473311303</v>
+        <v>1133.803221358588</v>
       </c>
       <c r="P41" t="n">
         <v>1520.054473311303</v>
@@ -7438,25 +7438,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S41" t="n">
-        <v>1560.611119000868</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="T41" t="n">
-        <v>1560.611119000868</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="U41" t="n">
-        <v>1560.611119000868</v>
+        <v>946.0630680013373</v>
       </c>
       <c r="V41" t="n">
-        <v>1210.773564337348</v>
+        <v>596.225513337818</v>
       </c>
       <c r="W41" t="n">
-        <v>827.0132634725169</v>
+        <v>428.4724824352262</v>
       </c>
       <c r="X41" t="n">
-        <v>432.9195465531059</v>
+        <v>428.4724824352262</v>
       </c>
       <c r="Y41" t="n">
-        <v>432.9195465531059</v>
+        <v>428.4724824352262</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>618.5472599225079</v>
+        <v>472.6530904782722</v>
       </c>
       <c r="C42" t="n">
-        <v>484.5521886714537</v>
+        <v>338.6580192272179</v>
       </c>
       <c r="D42" t="n">
-        <v>367.6550308908461</v>
+        <v>338.6580192272179</v>
       </c>
       <c r="E42" t="n">
-        <v>247.1622148831741</v>
+        <v>338.6580192272179</v>
       </c>
       <c r="F42" t="n">
-        <v>138.2023350656787</v>
+        <v>229.6981394097224</v>
       </c>
       <c r="G42" t="n">
-        <v>31.21222238001735</v>
+        <v>122.7080267240611</v>
       </c>
       <c r="H42" t="n">
-        <v>31.21222238001735</v>
+        <v>51.96081375977718</v>
       </c>
       <c r="I42" t="n">
         <v>31.21222238001735</v>
@@ -7493,25 +7493,25 @@
         <v>224.0250799426506</v>
       </c>
       <c r="K42" t="n">
-        <v>224.0250799426506</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L42" t="n">
-        <v>610.2763318953653</v>
+        <v>824.5154023641696</v>
       </c>
       <c r="M42" t="n">
-        <v>996.52758384808</v>
+        <v>824.5154023641696</v>
       </c>
       <c r="N42" t="n">
-        <v>1144.800347685523</v>
+        <v>824.5154023641696</v>
       </c>
       <c r="O42" t="n">
-        <v>1144.800347685523</v>
+        <v>824.5154023641696</v>
       </c>
       <c r="P42" t="n">
-        <v>1531.051599638238</v>
+        <v>1210.766654316884</v>
       </c>
       <c r="Q42" t="n">
-        <v>1531.051599638238</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R42" t="n">
         <v>1560.611119000868</v>
@@ -7520,22 +7520,22 @@
         <v>1452.621109115176</v>
       </c>
       <c r="T42" t="n">
-        <v>1293.279245302185</v>
+        <v>1432.676538107968</v>
       </c>
       <c r="U42" t="n">
-        <v>1095.928434440403</v>
+        <v>1235.325727246187</v>
       </c>
       <c r="V42" t="n">
-        <v>918.2522521942645</v>
+        <v>1021.614200239221</v>
       </c>
       <c r="W42" t="n">
-        <v>918.2522521942645</v>
+        <v>808.3810319755494</v>
       </c>
       <c r="X42" t="n">
-        <v>918.2522521942645</v>
+        <v>632.0550501144421</v>
       </c>
       <c r="Y42" t="n">
-        <v>758.8502925580946</v>
+        <v>472.6530904782722</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1120.546072681154</v>
+        <v>836.9496357110235</v>
       </c>
       <c r="C43" t="n">
-        <v>949.4527002428704</v>
+        <v>665.85626327274</v>
       </c>
       <c r="D43" t="n">
-        <v>789.9580555657803</v>
+        <v>506.36161859565</v>
       </c>
       <c r="E43" t="n">
-        <v>629.0472404340999</v>
+        <v>345.4508034639695</v>
       </c>
       <c r="F43" t="n">
-        <v>464.4161145446911</v>
+        <v>180.8196775745607</v>
       </c>
       <c r="G43" t="n">
-        <v>297.1657234702345</v>
+        <v>180.8196775745607</v>
       </c>
       <c r="H43" t="n">
-        <v>147.5582682756912</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I43" t="n">
         <v>31.21222238001735</v>
@@ -7572,7 +7572,7 @@
         <v>45.29477178522787</v>
       </c>
       <c r="K43" t="n">
-        <v>199.8470995074658</v>
+        <v>199.8470995074659</v>
       </c>
       <c r="L43" t="n">
         <v>459.7441997875264</v>
@@ -7596,25 +7596,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S43" t="n">
-        <v>1560.611119000868</v>
+        <v>1374.219350880778</v>
       </c>
       <c r="T43" t="n">
-        <v>1560.611119000868</v>
+        <v>1374.219350880778</v>
       </c>
       <c r="U43" t="n">
-        <v>1560.611119000868</v>
+        <v>1374.219350880778</v>
       </c>
       <c r="V43" t="n">
-        <v>1560.611119000868</v>
+        <v>1374.219350880778</v>
       </c>
       <c r="W43" t="n">
-        <v>1560.611119000868</v>
+        <v>1374.219350880778</v>
       </c>
       <c r="X43" t="n">
-        <v>1532.981477686434</v>
+        <v>1249.385040716303</v>
       </c>
       <c r="Y43" t="n">
-        <v>1308.245779075198</v>
+        <v>1024.649342105068</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>428.4724824352262</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="C44" t="n">
-        <v>428.4724824352262</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="D44" t="n">
-        <v>428.4724824352262</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="E44" t="n">
-        <v>428.4724824352262</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="F44" t="n">
-        <v>428.4724824352262</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="G44" t="n">
-        <v>428.4724824352262</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="H44" t="n">
-        <v>117.5639850629442</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I44" t="n">
         <v>31.21222238001735</v>
@@ -7651,25 +7651,25 @@
         <v>285.3976938477716</v>
       </c>
       <c r="K44" t="n">
-        <v>671.6489458004863</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="L44" t="n">
-        <v>671.6489458004863</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="M44" t="n">
         <v>671.6489458004863</v>
       </c>
       <c r="N44" t="n">
-        <v>788.1086150954382</v>
+        <v>1057.900197753201</v>
       </c>
       <c r="O44" t="n">
-        <v>1174.359867048153</v>
+        <v>1057.900197753201</v>
       </c>
       <c r="P44" t="n">
-        <v>1560.611119000868</v>
+        <v>1444.151449705916</v>
       </c>
       <c r="Q44" t="n">
-        <v>1560.611119000868</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="R44" t="n">
         <v>1560.611119000868</v>
@@ -7681,19 +7681,19 @@
         <v>1338.404634947726</v>
       </c>
       <c r="U44" t="n">
-        <v>1081.344143207237</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="V44" t="n">
-        <v>731.5065885437173</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="W44" t="n">
-        <v>731.5065885437173</v>
+        <v>954.6443340828951</v>
       </c>
       <c r="X44" t="n">
-        <v>428.4724824352262</v>
+        <v>560.550617163484</v>
       </c>
       <c r="Y44" t="n">
-        <v>428.4724824352262</v>
+        <v>342.1207197522994</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>572.3973151061844</v>
+        <v>300.9427749225932</v>
       </c>
       <c r="C45" t="n">
-        <v>438.40224385513</v>
+        <v>166.9477036715389</v>
       </c>
       <c r="D45" t="n">
-        <v>438.40224385513</v>
+        <v>151.7050383876894</v>
       </c>
       <c r="E45" t="n">
-        <v>317.909427847458</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F45" t="n">
-        <v>208.9495480299626</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G45" t="n">
-        <v>101.9594353443013</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H45" t="n">
         <v>31.21222238001735</v>
@@ -7727,25 +7727,25 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J45" t="n">
-        <v>31.21222238001735</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="K45" t="n">
-        <v>31.21222238001735</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L45" t="n">
-        <v>417.4634743327321</v>
+        <v>824.5154023641696</v>
       </c>
       <c r="M45" t="n">
-        <v>788.1086150954382</v>
+        <v>824.5154023641696</v>
       </c>
       <c r="N45" t="n">
-        <v>788.1086150954382</v>
+        <v>824.5154023641696</v>
       </c>
       <c r="O45" t="n">
-        <v>1174.359867048153</v>
+        <v>824.5154023641696</v>
       </c>
       <c r="P45" t="n">
-        <v>1560.611119000868</v>
+        <v>1210.766654316884</v>
       </c>
       <c r="Q45" t="n">
         <v>1560.611119000868</v>
@@ -7754,25 +7754,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S45" t="n">
-        <v>1452.621109115176</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T45" t="n">
-        <v>1293.279245302185</v>
+        <v>1401.269255187876</v>
       </c>
       <c r="U45" t="n">
-        <v>1262.139816246014</v>
+        <v>1203.918444326094</v>
       </c>
       <c r="V45" t="n">
-        <v>1048.428289239048</v>
+        <v>990.2069173191283</v>
       </c>
       <c r="W45" t="n">
-        <v>1048.428289239048</v>
+        <v>776.973749055457</v>
       </c>
       <c r="X45" t="n">
-        <v>872.102307377941</v>
+        <v>600.6477671943499</v>
       </c>
       <c r="Y45" t="n">
-        <v>712.700347741771</v>
+        <v>441.2458075581799</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>961.7839458754979</v>
+        <v>506.36161859565</v>
       </c>
       <c r="C46" t="n">
-        <v>949.4527002428704</v>
+        <v>506.36161859565</v>
       </c>
       <c r="D46" t="n">
-        <v>789.9580555657803</v>
+        <v>506.36161859565</v>
       </c>
       <c r="E46" t="n">
-        <v>629.0472404340999</v>
+        <v>345.4508034639695</v>
       </c>
       <c r="F46" t="n">
-        <v>464.4161145446911</v>
+        <v>180.8196775745607</v>
       </c>
       <c r="G46" t="n">
-        <v>297.1657234702345</v>
+        <v>180.8196775745607</v>
       </c>
       <c r="H46" t="n">
-        <v>147.5582682756912</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I46" t="n">
         <v>31.21222238001735</v>
@@ -7830,28 +7830,28 @@
         <v>1560.611119000868</v>
       </c>
       <c r="R46" t="n">
-        <v>1560.611119000868</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="S46" t="n">
-        <v>1374.219350880778</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="T46" t="n">
-        <v>1374.219350880778</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="U46" t="n">
-        <v>1374.219350880778</v>
+        <v>1192.540253222391</v>
       </c>
       <c r="V46" t="n">
-        <v>1374.219350880778</v>
+        <v>932.405187130011</v>
       </c>
       <c r="W46" t="n">
-        <v>1374.219350880778</v>
+        <v>932.405187130011</v>
       </c>
       <c r="X46" t="n">
-        <v>1374.219350880778</v>
+        <v>694.0613249896944</v>
       </c>
       <c r="Y46" t="n">
-        <v>1149.483652269542</v>
+        <v>694.0613249896944</v>
       </c>
     </row>
   </sheetData>
@@ -7987,16 +7987,16 @@
         <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
-        <v>483.4430042072623</v>
+        <v>210.9262540479059</v>
       </c>
       <c r="N2" t="n">
         <v>483.0650705068362</v>
       </c>
       <c r="O2" t="n">
-        <v>210.8258052166435</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>483.8021430311011</v>
       </c>
       <c r="Q2" t="n">
         <v>90.03380439915205</v>
@@ -8063,13 +8063,13 @@
         <v>445.9785625348323</v>
       </c>
       <c r="L3" t="n">
-        <v>446.2673035610659</v>
+        <v>235.7430926998116</v>
       </c>
       <c r="M3" t="n">
-        <v>244.1092848557653</v>
+        <v>447.7170634886343</v>
       </c>
       <c r="N3" t="n">
-        <v>53.19339339374999</v>
+        <v>443.3461731439669</v>
       </c>
       <c r="O3" t="n">
         <v>57.751479</v>
@@ -8078,10 +8078,10 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R3" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>65.65794306195622</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K4" t="n">
         <v>208.3638319047618</v>
@@ -8151,7 +8151,7 @@
         <v>335.3881832803894</v>
       </c>
       <c r="O4" t="n">
-        <v>318.2573327462026</v>
+        <v>318.2573327462027</v>
       </c>
       <c r="P4" t="n">
         <v>263.5328115890082</v>
@@ -8215,25 +8215,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
         <v>479.289169423434</v>
       </c>
       <c r="L5" t="n">
-        <v>485.6381778130617</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
-        <v>235.7076676518025</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>92.91229075661933</v>
+        <v>101.9299556837397</v>
       </c>
       <c r="O5" t="n">
-        <v>93.18977562578313</v>
+        <v>483.342555376</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>483.8021430311011</v>
       </c>
       <c r="Q5" t="n">
         <v>414.4388617681339</v>
@@ -8300,25 +8300,25 @@
         <v>445.9785625348323</v>
       </c>
       <c r="L6" t="n">
-        <v>446.2673035610659</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
         <v>447.7170634886343</v>
       </c>
       <c r="N6" t="n">
-        <v>202.9638619164196</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>57.751479</v>
+        <v>274.1545804836408</v>
       </c>
       <c r="P6" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,13 +8373,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>65.65794306195595</v>
+        <v>65.65794306195622</v>
       </c>
       <c r="K7" t="n">
         <v>208.3638319047618</v>
       </c>
       <c r="L7" t="n">
-        <v>317.1506174091145</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M7" t="n">
         <v>348.4508580952379</v>
@@ -8461,16 +8461,16 @@
         <v>95.48539806284482</v>
       </c>
       <c r="M8" t="n">
-        <v>483.4430042072623</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N8" t="n">
-        <v>235.3297339513764</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O8" t="n">
-        <v>93.18977562578313</v>
+        <v>235.6072188205403</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>483.8021430311011</v>
       </c>
       <c r="Q8" t="n">
         <v>414.4388617681339</v>
@@ -8531,19 +8531,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>445.9785625348323</v>
       </c>
       <c r="L9" t="n">
-        <v>446.2673035610659</v>
+        <v>242.6595249281969</v>
       </c>
       <c r="M9" t="n">
-        <v>447.7170634886343</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>397.7243241008975</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
         <v>57.751479</v>
@@ -8552,7 +8552,7 @@
         <v>444.4124147530206</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
         <v>88.85829947169823</v>
@@ -8613,7 +8613,7 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K10" t="n">
-        <v>208.3638319047618</v>
+        <v>208.363831904762</v>
       </c>
       <c r="L10" t="n">
         <v>317.1506174091142</v>
@@ -8698,16 +8698,16 @@
         <v>95.48539806284482</v>
       </c>
       <c r="M11" t="n">
-        <v>483.4430042072623</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N11" t="n">
-        <v>235.3297339513764</v>
+        <v>235.3297339513765</v>
       </c>
       <c r="O11" t="n">
         <v>93.18977562578313</v>
       </c>
       <c r="P11" t="n">
-        <v>93.64936328088416</v>
+        <v>483.8021430311011</v>
       </c>
       <c r="Q11" t="n">
         <v>414.4388617681339</v>
@@ -8777,19 +8777,19 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>447.7170634886343</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>443.3461731439669</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>57.751479</v>
+        <v>244.2964801173478</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>444.4124147530206</v>
       </c>
       <c r="Q12" t="n">
-        <v>206.4630870275083</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
         <v>88.85829947169823</v>
@@ -8850,7 +8850,7 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K13" t="n">
-        <v>208.363831904762</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L13" t="n">
         <v>317.1506174091142</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
-        <v>89.13638967321712</v>
+        <v>479.289169423434</v>
       </c>
       <c r="L14" t="n">
-        <v>95.48539806284482</v>
+        <v>485.6381778130617</v>
       </c>
       <c r="M14" t="n">
-        <v>102.3078893841658</v>
+        <v>483.4430042072623</v>
       </c>
       <c r="N14" t="n">
-        <v>483.0650705068362</v>
+        <v>169.5820115701414</v>
       </c>
       <c r="O14" t="n">
-        <v>483.342555376</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P14" t="n">
-        <v>483.8021430311011</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q14" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R14" t="n">
         <v>128.2784515920617</v>
@@ -9008,28 +9008,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>445.9785625348323</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>446.2673035610659</v>
       </c>
       <c r="M15" t="n">
-        <v>447.7170634886343</v>
+        <v>237.1928526273799</v>
       </c>
       <c r="N15" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>447.9042587502169</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
         <v>444.4124147530206</v>
       </c>
       <c r="Q15" t="n">
-        <v>206.4630870275083</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R15" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
-        <v>89.13638967321712</v>
+        <v>165.8061104867393</v>
       </c>
       <c r="L17" t="n">
-        <v>428.908120358947</v>
+        <v>485.6381778130617</v>
       </c>
       <c r="M17" t="n">
         <v>483.4430042072623</v>
@@ -9178,7 +9178,7 @@
         <v>483.0650705068362</v>
       </c>
       <c r="O17" t="n">
-        <v>483.342555376</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P17" t="n">
         <v>93.64936328088416</v>
@@ -9242,31 +9242,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
         <v>445.9785625348323</v>
       </c>
       <c r="L18" t="n">
-        <v>446.2673035610659</v>
+        <v>272.5176252944898</v>
       </c>
       <c r="M18" t="n">
-        <v>402.095214445565</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>443.3461731439669</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
         <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>444.4124147530206</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K20" t="n">
-        <v>479.289169423434</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L20" t="n">
-        <v>485.6381778130617</v>
+        <v>237.902841257602</v>
       </c>
       <c r="M20" t="n">
-        <v>483.4430042072623</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N20" t="n">
-        <v>426.3350130527216</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O20" t="n">
-        <v>93.18977562578313</v>
+        <v>483.342555376</v>
       </c>
       <c r="P20" t="n">
-        <v>93.64936328088416</v>
+        <v>483.8021430311011</v>
       </c>
       <c r="Q20" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R20" t="n">
         <v>128.2784515920617</v>
@@ -9479,16 +9479,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K21" t="n">
         <v>445.9785625348323</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>400.6454545179966</v>
       </c>
       <c r="M21" t="n">
-        <v>57.56428373841742</v>
+        <v>447.7170634886343</v>
       </c>
       <c r="N21" t="n">
         <v>443.3461731439669</v>
@@ -9497,10 +9497,10 @@
         <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>240.8046361201516</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q21" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R21" t="n">
         <v>88.85829947169823</v>
@@ -9640,22 +9640,22 @@
         <v>330.076592815888</v>
       </c>
       <c r="K23" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L23" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M23" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N23" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O23" t="n">
-        <v>93.18977562578313</v>
+        <v>494.099071146226</v>
       </c>
       <c r="P23" t="n">
-        <v>494.5586588013271</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q23" t="n">
         <v>414.4388617681339</v>
@@ -9722,22 +9722,22 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>575.2569637637755</v>
+        <v>262.4384495236163</v>
       </c>
       <c r="O24" t="n">
         <v>579.8150493700256</v>
       </c>
       <c r="P24" t="n">
-        <v>94.81936791818303</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
         <v>59.00019910540541</v>
@@ -9874,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K26" t="n">
-        <v>479.289169423434</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L26" t="n">
         <v>485.6381778130617</v>
@@ -9889,7 +9889,7 @@
         <v>92.91229075661933</v>
       </c>
       <c r="O26" t="n">
-        <v>102.2074405529035</v>
+        <v>235.6072188205403</v>
       </c>
       <c r="P26" t="n">
         <v>483.8021430311011</v>
@@ -9962,13 +9962,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
-        <v>447.7170634886343</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
         <v>239.7383945110979</v>
       </c>
       <c r="O27" t="n">
-        <v>57.751479</v>
+        <v>447.9042587502169</v>
       </c>
       <c r="P27" t="n">
         <v>54.25963500280375</v>
@@ -10114,19 +10114,19 @@
         <v>330.076592815888</v>
       </c>
       <c r="K29" t="n">
-        <v>272.5201416453126</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L29" t="n">
-        <v>485.6381778130617</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M29" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N29" t="n">
-        <v>92.91229075661933</v>
+        <v>235.3297339513765</v>
       </c>
       <c r="O29" t="n">
-        <v>93.18977562578313</v>
+        <v>483.342555376</v>
       </c>
       <c r="P29" t="n">
         <v>483.8021430311011</v>
@@ -10135,7 +10135,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R29" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
         <v>445.9785625348323</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>242.6595249281969</v>
       </c>
       <c r="M30" t="n">
-        <v>447.7170634886343</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>443.3461731439669</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>78.76226291790199</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>444.4124147530206</v>
       </c>
       <c r="Q30" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,25 +10348,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K32" t="n">
-        <v>89.13638967321712</v>
+        <v>479.289169423434</v>
       </c>
       <c r="L32" t="n">
         <v>485.6381778130617</v>
       </c>
       <c r="M32" t="n">
-        <v>426.7129467531477</v>
+        <v>483.4430042072623</v>
       </c>
       <c r="N32" t="n">
-        <v>483.0650705068362</v>
+        <v>169.5820115701414</v>
       </c>
       <c r="O32" t="n">
         <v>93.18977562578313</v>
       </c>
       <c r="P32" t="n">
-        <v>483.8021430311011</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q32" t="n">
         <v>90.03380439915205</v>
@@ -10427,31 +10427,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
         <v>445.9785625348323</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>242.6595249281969</v>
       </c>
       <c r="M33" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
-        <v>443.3461731439669</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>432.1405100734405</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
         <v>444.4124147530206</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,22 +10585,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K35" t="n">
-        <v>89.13638967321712</v>
+        <v>479.289169423434</v>
       </c>
       <c r="L35" t="n">
-        <v>172.155118876367</v>
+        <v>485.6381778130617</v>
       </c>
       <c r="M35" t="n">
         <v>483.4430042072623</v>
       </c>
       <c r="N35" t="n">
-        <v>483.0650705068362</v>
+        <v>426.3350130527216</v>
       </c>
       <c r="O35" t="n">
-        <v>483.342555376</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P35" t="n">
         <v>93.64936328088416</v>
@@ -10670,13 +10670,13 @@
         <v>445.9785625348323</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>242.6595249281969</v>
       </c>
       <c r="M36" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>443.3461731439669</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
         <v>57.751479</v>
@@ -10685,7 +10685,7 @@
         <v>444.4124147530206</v>
       </c>
       <c r="Q36" t="n">
-        <v>206.4630870275083</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
         <v>88.85829947169823</v>
@@ -10825,25 +10825,25 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K38" t="n">
-        <v>479.289169423434</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L38" t="n">
-        <v>485.6381778130617</v>
+        <v>145.4693717673035</v>
       </c>
       <c r="M38" t="n">
-        <v>93.29022445704545</v>
+        <v>483.4430042072623</v>
       </c>
       <c r="N38" t="n">
-        <v>92.91229075661933</v>
+        <v>483.0650705068362</v>
       </c>
       <c r="O38" t="n">
         <v>483.342555376</v>
       </c>
       <c r="P38" t="n">
-        <v>468.0383943543247</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q38" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
         <v>87.31214281472352</v>
@@ -10907,13 +10907,13 @@
         <v>445.9785625348323</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>242.6595249281969</v>
       </c>
       <c r="M39" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
-        <v>443.3461731439669</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
         <v>57.751479</v>
@@ -10922,7 +10922,7 @@
         <v>444.4124147530206</v>
       </c>
       <c r="Q39" t="n">
-        <v>206.4630870275083</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
         <v>88.85829947169823</v>
@@ -11062,10 +11062,10 @@
         <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>479.289169423434</v>
+        <v>165.8061104867393</v>
       </c>
       <c r="L41" t="n">
-        <v>172.155118876367</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M41" t="n">
         <v>483.4430042072623</v>
@@ -11077,7 +11077,7 @@
         <v>93.18977562578313</v>
       </c>
       <c r="P41" t="n">
-        <v>93.64936328088416</v>
+        <v>483.8021430311011</v>
       </c>
       <c r="Q41" t="n">
         <v>90.03380439915205</v>
@@ -11141,16 +11141,16 @@
         <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>445.9785625348323</v>
       </c>
       <c r="L42" t="n">
-        <v>446.2673035610659</v>
+        <v>272.5176252944898</v>
       </c>
       <c r="M42" t="n">
-        <v>447.7170634886343</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>202.9638619164196</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
         <v>57.751479</v>
@@ -11159,10 +11159,10 @@
         <v>444.4124147530206</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11299,28 +11299,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>479.289169423434</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L44" t="n">
         <v>95.48539806284482</v>
       </c>
       <c r="M44" t="n">
-        <v>93.29022445704545</v>
+        <v>483.4430042072623</v>
       </c>
       <c r="N44" t="n">
-        <v>210.5483203474798</v>
+        <v>483.0650705068362</v>
       </c>
       <c r="O44" t="n">
-        <v>483.342555376</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P44" t="n">
         <v>483.8021430311011</v>
       </c>
       <c r="Q44" t="n">
-        <v>90.03380439915205</v>
+        <v>166.7035252126741</v>
       </c>
       <c r="R44" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,28 +11375,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>445.9785625348323</v>
       </c>
       <c r="L45" t="n">
-        <v>446.2673035610659</v>
+        <v>272.5176252944898</v>
       </c>
       <c r="M45" t="n">
-        <v>431.9533148118579</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>447.9042587502169</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
         <v>444.4124147530206</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
         <v>59.00019910540541</v>
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.96618811762767</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>15.87056502964566</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
         <v>400.41929060787</v>
@@ -22561,10 +22561,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>14.48822151587922</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>300.2619412174184</v>
       </c>
       <c r="I2" t="n">
         <v>85.48824505609757</v>
@@ -22600,19 +22600,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>87.01413699837104</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>6.484184102520089</v>
       </c>
       <c r="Y2" t="n">
         <v>396.9273063213908</v>
@@ -22628,13 +22628,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>5.597422304822132</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -22646,7 +22646,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22676,7 +22676,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>157.7484451748619</v>
@@ -22685,7 +22685,7 @@
         <v>195.3773027531635</v>
       </c>
       <c r="V3" t="n">
-        <v>51.88353852249338</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -22704,28 +22704,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22752,28 +22752,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>36.40266723782769</v>
       </c>
       <c r="S4" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -22783,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.96618811762767</v>
+        <v>262.9186037595719</v>
       </c>
       <c r="C5" t="n">
-        <v>15.87056502964566</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
         <v>400.41929060787</v>
@@ -22840,19 +22840,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>52.99039544874586</v>
+        <v>6.484184102520089</v>
       </c>
       <c r="Y5" t="n">
-        <v>6.774526571173908</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -22862,16 +22862,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>62.4854317637765</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -22880,10 +22880,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22916,13 +22916,13 @@
         <v>106.9101097868343</v>
       </c>
       <c r="T6" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>51.88353852249338</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -22941,10 +22941,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>126.945026968824</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
         <v>157.8996982303191</v>
@@ -22956,7 +22956,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>87.85198055061203</v>
       </c>
       <c r="H7" t="n">
         <v>148.1113806425979</v>
@@ -22992,16 +22992,16 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -23023,16 +23023,16 @@
         <v>15.96618811762767</v>
       </c>
       <c r="C8" t="n">
-        <v>406.0233447798626</v>
+        <v>62.37677637587154</v>
       </c>
       <c r="D8" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>410.1968133282722</v>
+        <v>20.04403357805535</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>26.66732817563241</v>
       </c>
       <c r="G8" t="n">
         <v>404.6410012660961</v>
@@ -23083,13 +23083,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>42.76031355471213</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>6.774526571173908</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -23108,19 +23108,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>87.27027128299981</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23153,13 +23153,13 @@
         <v>106.9101097868343</v>
       </c>
       <c r="T9" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>51.88353852249338</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -23193,13 +23193,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>92.7629304731001</v>
       </c>
       <c r="I10" t="n">
-        <v>32.32459858727599</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,7 +23226,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -23247,7 +23247,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -23260,25 +23260,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>15.87056502964566</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>10.26651085765315</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>66.55024492428123</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
         <v>26.66732817563241</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>14.48822151587922</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>39.41100715663189</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23320,7 +23320,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>396.636963852737</v>
@@ -23342,7 +23342,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>72.69811923316104</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -23351,13 +23351,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>40.95180877225226</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23402,7 +23402,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23427,10 +23427,10 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.1113806425979</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>1.562004291913169</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>114.967490726988</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -23500,19 +23500,19 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>10.26651085765315</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>20.04403357805535</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
         <v>26.66732817563241</v>
       </c>
       <c r="G14" t="n">
-        <v>60.9944328621051</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>85.48824505609757</v>
@@ -23548,13 +23548,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>4.660769646713163</v>
       </c>
       <c r="W14" t="n">
         <v>379.9226978561831</v>
@@ -23579,16 +23579,16 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>88.26016951102955</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>105.9202115588047</v>
+        <v>102.8540284130191</v>
       </c>
       <c r="H15" t="n">
         <v>70.03974083464111</v>
@@ -23624,7 +23624,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23633,7 +23633,7 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>115.1825854367171</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>214.424487269234</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>193.4209809967732</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -23746,10 +23746,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>404.6410012660961</v>
+        <v>14.48822151587922</v>
       </c>
       <c r="H17" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>85.48824505609757</v>
@@ -23785,22 +23785,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>246.9524156419444</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>4.660769646713163</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>6.484184102520089</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>6.774526571173908</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="18">
@@ -23813,10 +23813,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>91.81987115582334</v>
       </c>
       <c r="D18" t="n">
-        <v>100.6379475717904</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -23861,7 +23861,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>171.8225497205148</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>136.5659602655393</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>115.1825854367171</v>
@@ -23943,16 +23943,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23974,19 +23974,19 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>284.5184378853385</v>
       </c>
       <c r="E20" t="n">
-        <v>20.04403357805535</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
         <v>26.66732817563241</v>
       </c>
       <c r="G20" t="n">
-        <v>237.1652514413821</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>85.48824505609757</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24053,22 +24053,22 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>107.811376748962</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G21" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>70.03974083464111</v>
       </c>
       <c r="I21" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24110,10 +24110,10 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>33.94550654861476</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>57.06664624006483</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,25 +24177,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>18.64322163769415</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -24208,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>400.41929060787</v>
@@ -24226,7 +24226,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>52.53585873238111</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24262,10 +24262,10 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
-        <v>161.85333483639</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
         <v>379.9226978561831</v>
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>102.8420221153584</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>93.42449318090661</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24414,22 +24414,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>15.96618811762767</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>137.6349395379353</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
         <v>400.41929060787</v>
@@ -24454,16 +24454,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>26.66732817563241</v>
       </c>
       <c r="G26" t="n">
-        <v>14.48822151587922</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,16 +24496,16 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>76.78405510433709</v>
       </c>
       <c r="X26" t="n">
         <v>396.636963852737</v>
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -24530,10 +24530,10 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>100.6379475717904</v>
       </c>
       <c r="F27" t="n">
-        <v>69.60822628188012</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G27" t="n">
         <v>105.9202115588047</v>
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>63.63694842402707</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
         <v>148.1113806425979</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>32.47111016773445</v>
       </c>
     </row>
     <row r="29">
@@ -24691,7 +24691,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>26.66732817563241</v>
       </c>
       <c r="G29" t="n">
         <v>404.6410012660961</v>
@@ -24733,19 +24733,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>0.9579822396013924</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>217.1965036606975</v>
+        <v>6.484184102520089</v>
       </c>
       <c r="Y29" t="n">
         <v>396.9273063213908</v>
@@ -24758,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>100.6379475717904</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -24767,13 +24767,13 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F30" t="n">
         <v>107.8702810193205</v>
       </c>
       <c r="G30" t="n">
-        <v>105.9202115588047</v>
+        <v>87.27027128299981</v>
       </c>
       <c r="H30" t="n">
         <v>70.03974083464111</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>157.8996982303191</v>
@@ -24849,13 +24849,13 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>13.37633960328873</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>115.1825854367171</v>
@@ -24885,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>227.703257949318</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24922,7 +24922,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>10.26651085765315</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
         <v>410.1968133282722</v>
@@ -24931,7 +24931,7 @@
         <v>26.66732817563241</v>
       </c>
       <c r="G32" t="n">
-        <v>14.48822151587922</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
         <v>307.7994123985592</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>219.9844192126098</v>
@@ -24976,16 +24976,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>36.27612945219198</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>396.9273063213908</v>
+        <v>133.1653198438734</v>
       </c>
     </row>
     <row r="33">
@@ -25001,13 +25001,13 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>115.7281862028015</v>
+        <v>100.6379475717904</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G33" t="n">
         <v>105.9202115588047</v>
@@ -25046,7 +25046,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25055,7 +25055,7 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>199.6901521751439</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>88.40775614802889</v>
       </c>
       <c r="C34" t="n">
-        <v>115.4526577326937</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
         <v>276.2789678462144</v>
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>15.96618811762767</v>
+        <v>26.23230338008665</v>
       </c>
       <c r="C35" t="n">
-        <v>15.87056502964566</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
         <v>400.41929060787</v>
@@ -25165,7 +25165,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>26.66732817563241</v>
       </c>
       <c r="G35" t="n">
         <v>404.6410012660961</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>254.489886823085</v>
@@ -25219,10 +25219,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>6.484184102520089</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>53.28073791739979</v>
+        <v>6.774526571173908</v>
       </c>
     </row>
     <row r="36">
@@ -25286,22 +25286,22 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U36" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>211.1008365810345</v>
+        <v>1.259183514224901</v>
       </c>
       <c r="X36" t="n">
-        <v>84.90015143719303</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="37">
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>157.8996982303191</v>
@@ -25323,10 +25323,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.1113806425979</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>214.6543374933682</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>24.56666594105459</v>
       </c>
     </row>
     <row r="38">
@@ -25402,16 +25402,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>26.66732817563241</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>14.48822151587922</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>13.40099296689881</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>396.636963852737</v>
+        <v>391.0676516054164</v>
       </c>
       <c r="Y38" t="n">
         <v>396.9273063213908</v>
@@ -25475,10 +25475,10 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E39" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>107.8702810193205</v>
@@ -25487,7 +25487,7 @@
         <v>105.9202115588047</v>
       </c>
       <c r="H39" t="n">
-        <v>70.03974083464111</v>
+        <v>54.94950220363005</v>
       </c>
       <c r="I39" t="n">
         <v>20.54110546596223</v>
@@ -25520,7 +25520,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25529,7 +25529,7 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>88.26016951102955</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,25 +25599,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>48.51506501616805</v>
       </c>
       <c r="Y40" t="n">
-        <v>28.63340045415333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>15.96618811762767</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
         <v>406.0233447798626</v>
@@ -25645,10 +25645,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>300.2619412174184</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>213.8471972626172</v>
       </c>
       <c r="X41" t="n">
-        <v>6.484184102520089</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
         <v>396.9273063213908</v>
@@ -25706,16 +25706,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -25724,10 +25724,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25760,19 +25760,19 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>138.0033198777257</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>35.67499131321927</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>237.1532516330649</v>
@@ -25851,7 +25851,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>208.6070786176239</v>
+        <v>112.3744564560836</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25921,19 +25921,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>96.63319880533084</v>
+        <v>6.484184102520089</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>180.681707884318</v>
       </c>
     </row>
     <row r="45">
@@ -25949,19 +25949,19 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>115.7281862028015</v>
+        <v>100.6379475717904</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I45" t="n">
         <v>20.54110546596223</v>
@@ -25994,19 +25994,19 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>164.5492679875549</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -26025,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>157.1745055375994</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>13.61317217841668</v>
       </c>
       <c r="W46" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>485159.5995864045</v>
+        <v>485159.5995864046</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>485159.5995864044</v>
+        <v>485159.5995864045</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>485159.5995864044</v>
+        <v>485159.5995864045</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>485159.5995864045</v>
+        <v>485159.5995864043</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>485159.5995864044</v>
+        <v>485159.5995864045</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>485159.5995864045</v>
+        <v>485159.5995864044</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>485159.5995864043</v>
+        <v>485159.5995864042</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>485159.5995864044</v>
+        <v>485159.5995864045</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>485159.5995864045</v>
+        <v>485159.5995864043</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>485159.5995864044</v>
+        <v>485159.5995864045</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>79515.96550781335</v>
       </c>
       <c r="C2" t="n">
-        <v>79515.96550781334</v>
+        <v>79515.96550781338</v>
       </c>
       <c r="D2" t="n">
         <v>79515.96550781334</v>
       </c>
       <c r="E2" t="n">
-        <v>79515.96550781335</v>
+        <v>79515.96550781332</v>
       </c>
       <c r="F2" t="n">
-        <v>79515.96550781335</v>
+        <v>79515.96550781332</v>
       </c>
       <c r="G2" t="n">
         <v>79515.96550781335</v>
       </c>
       <c r="H2" t="n">
-        <v>79515.96550781332</v>
+        <v>79515.96550781337</v>
       </c>
       <c r="I2" t="n">
         <v>95129.50709305263</v>
       </c>
       <c r="J2" t="n">
-        <v>79515.96550781338</v>
+        <v>79515.96550781334</v>
       </c>
       <c r="K2" t="n">
-        <v>79515.96550781337</v>
+        <v>79515.96550781332</v>
       </c>
       <c r="L2" t="n">
         <v>79515.96550781335</v>
       </c>
       <c r="M2" t="n">
-        <v>79515.96550781332</v>
+        <v>79515.96550781331</v>
       </c>
       <c r="N2" t="n">
-        <v>79515.96550781332</v>
+        <v>79515.96550781337</v>
       </c>
       <c r="O2" t="n">
         <v>79515.96550781332</v>
       </c>
       <c r="P2" t="n">
-        <v>79515.96550781337</v>
+        <v>79515.96550781335</v>
       </c>
     </row>
     <row r="3">
@@ -26420,7 +26420,7 @@
         <v>8402.128113625799</v>
       </c>
       <c r="C4" t="n">
-        <v>8402.128113625797</v>
+        <v>8402.128113625799</v>
       </c>
       <c r="D4" t="n">
         <v>8402.128113625799</v>
@@ -26429,7 +26429,7 @@
         <v>8402.128113625799</v>
       </c>
       <c r="F4" t="n">
-        <v>8402.1281136258</v>
+        <v>8402.128113625799</v>
       </c>
       <c r="G4" t="n">
         <v>8402.128113625799</v>
@@ -26447,7 +26447,7 @@
         <v>8402.128113625799</v>
       </c>
       <c r="L4" t="n">
-        <v>8402.1281136258</v>
+        <v>8402.128113625797</v>
       </c>
       <c r="M4" t="n">
         <v>8402.128113625799</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-116984.2216228576</v>
+        <v>-117817.885898104</v>
       </c>
       <c r="C6" t="n">
-        <v>13764.94838537436</v>
+        <v>12931.28411012795</v>
       </c>
       <c r="D6" t="n">
-        <v>13764.94838537434</v>
+        <v>12931.28411012791</v>
       </c>
       <c r="E6" t="n">
-        <v>47392.54838537436</v>
+        <v>46558.8841101279</v>
       </c>
       <c r="F6" t="n">
-        <v>47392.54838537436</v>
+        <v>46558.8841101279</v>
       </c>
       <c r="G6" t="n">
-        <v>47392.54838537436</v>
+        <v>46558.88411012792</v>
       </c>
       <c r="H6" t="n">
-        <v>47392.54838537434</v>
+        <v>46558.88411012794</v>
       </c>
       <c r="I6" t="n">
-        <v>18219.42521780252</v>
+        <v>17541.89635840848</v>
       </c>
       <c r="J6" t="n">
-        <v>-20174.91861866214</v>
+        <v>-21008.58289390862</v>
       </c>
       <c r="K6" t="n">
-        <v>47392.54838537438</v>
+        <v>46558.8841101279</v>
       </c>
       <c r="L6" t="n">
-        <v>47392.54838537436</v>
+        <v>46558.88411012792</v>
       </c>
       <c r="M6" t="n">
-        <v>47392.54838537434</v>
+        <v>46558.88411012788</v>
       </c>
       <c r="N6" t="n">
-        <v>47392.54838537434</v>
+        <v>46558.88411012794</v>
       </c>
       <c r="O6" t="n">
-        <v>47392.54838537434</v>
+        <v>46558.8841101279</v>
       </c>
       <c r="P6" t="n">
-        <v>47392.54838537438</v>
+        <v>46558.88411012792</v>
       </c>
     </row>
   </sheetData>
@@ -34707,16 +34707,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>390.1527797502169</v>
+        <v>117.6360295908604</v>
       </c>
       <c r="N2" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="O2" t="n">
-        <v>117.6360295908603</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34783,13 +34783,13 @@
         <v>390.1527797502169</v>
       </c>
       <c r="L3" t="n">
+        <v>179.6285688889625</v>
+      </c>
+      <c r="M3" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="M3" t="n">
-        <v>186.5450011173479</v>
-      </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -34798,10 +34798,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>14.22479737900079</v>
+        <v>14.22479737900053</v>
       </c>
       <c r="K4" t="n">
         <v>156.1134623456949</v>
@@ -34871,7 +34871,7 @@
         <v>283.67553777197</v>
       </c>
       <c r="O4" t="n">
-        <v>262.1824346732062</v>
+        <v>262.1824346732063</v>
       </c>
       <c r="P4" t="n">
         <v>207.7529699491034</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>9.017664927120396</v>
+      </c>
+      <c r="O5" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="M5" t="n">
-        <v>142.4174431947571</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="Q5" t="n">
         <v>324.4050573689818</v>
@@ -35020,25 +35020,25 @@
         <v>390.1527797502169</v>
       </c>
       <c r="L6" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="N6" t="n">
-        <v>149.7704685226696</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>216.4031014836408</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,13 +35093,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>14.22479737900053</v>
+        <v>14.22479737900079</v>
       </c>
       <c r="K7" t="n">
         <v>156.1134623456949</v>
       </c>
       <c r="L7" t="n">
-        <v>262.522323515213</v>
+        <v>262.5223235152127</v>
       </c>
       <c r="M7" t="n">
         <v>292.1859155964578</v>
@@ -35181,16 +35181,16 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>142.4174431947572</v>
+      </c>
+      <c r="P8" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="N8" t="n">
-        <v>142.4174431947571</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>324.4050573689818</v>
@@ -35251,19 +35251,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L9" t="n">
-        <v>390.1527797502169</v>
+        <v>186.5450011173479</v>
       </c>
       <c r="M9" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>344.5309307071475</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35272,7 +35272,7 @@
         <v>390.1527797502169</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
         <v>29.85810036629282</v>
@@ -35333,7 +35333,7 @@
         <v>14.22479737900053</v>
       </c>
       <c r="K10" t="n">
-        <v>156.1134623456949</v>
+        <v>156.1134623456952</v>
       </c>
       <c r="L10" t="n">
         <v>262.5223235152127</v>
@@ -35418,16 +35418,16 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>142.4174431947572</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="N11" t="n">
-        <v>142.4174431947571</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>324.4050573689818</v>
@@ -35497,19 +35497,19 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>186.5450011173479</v>
+      </c>
+      <c r="P12" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="N12" t="n">
-        <v>390.1527797502169</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
       <c r="Q12" t="n">
-        <v>149.7704685226696</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
         <v>29.85810036629282</v>
@@ -35570,7 +35570,7 @@
         <v>14.22479737900053</v>
       </c>
       <c r="K13" t="n">
-        <v>156.1134623456952</v>
+        <v>156.1134623456949</v>
       </c>
       <c r="L13" t="n">
         <v>262.5223235152127</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M14" t="n">
-        <v>9.017664927120396</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="N14" t="n">
-        <v>390.1527797502169</v>
+        <v>76.66972081352203</v>
       </c>
       <c r="O14" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>40.9663087773382</v>
@@ -35728,28 +35728,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M15" t="n">
-        <v>390.1527797502169</v>
+        <v>179.6285688889625</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="Q15" t="n">
-        <v>149.7704685226696</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,13 +35883,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>76.66972081352215</v>
       </c>
       <c r="L17" t="n">
-        <v>333.4227222961022</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M17" t="n">
         <v>390.1527797502169</v>
@@ -35898,7 +35898,7 @@
         <v>390.1527797502169</v>
       </c>
       <c r="O17" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="L18" t="n">
+        <v>216.4031014836408</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="M18" t="n">
-        <v>344.5309307071475</v>
-      </c>
-      <c r="N18" t="n">
-        <v>390.1527797502169</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>142.4174431947572</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="L20" t="n">
+      <c r="P20" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="M20" t="n">
-        <v>390.1527797502169</v>
-      </c>
-      <c r="N20" t="n">
-        <v>333.4227222961023</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R20" t="n">
         <v>40.9663087773382</v>
@@ -36199,16 +36199,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>344.5309307071475</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="N21" t="n">
         <v>390.1527797502169</v>
@@ -36217,10 +36217,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>186.5450011173479</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>29.85810036629282</v>
@@ -36360,22 +36360,22 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>400.9092955204429</v>
+      </c>
+      <c r="P23" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="M23" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>400.9092955204429</v>
       </c>
       <c r="Q23" t="n">
         <v>324.4050573689818</v>
@@ -36442,22 +36442,22 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>522.0635703700256</v>
+        <v>209.2450561298663</v>
       </c>
       <c r="O24" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P24" t="n">
-        <v>40.55973291537929</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,10 +36594,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K26" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>390.1527797502169</v>
@@ -36609,7 +36609,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>9.017664927120396</v>
+        <v>142.4174431947572</v>
       </c>
       <c r="P26" t="n">
         <v>390.1527797502169</v>
@@ -36682,13 +36682,13 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>186.5450011173479</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36834,19 +36834,19 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K29" t="n">
-        <v>183.3837519720955</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>142.4174431947572</v>
+      </c>
+      <c r="O29" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>390.1527797502169</v>
@@ -36855,7 +36855,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>186.5450011173479</v>
       </c>
       <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="N30" t="n">
-        <v>390.1527797502169</v>
-      </c>
-      <c r="O30" t="n">
-        <v>21.01078391790199</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,25 +37068,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L32" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="M32" t="n">
-        <v>333.4227222961022</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="N32" t="n">
-        <v>390.1527797502169</v>
+        <v>76.66972081352203</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>186.5450011173479</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>374.3890310734405</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,22 +37305,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L35" t="n">
-        <v>76.66972081352215</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M35" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="N35" t="n">
-        <v>390.1527797502169</v>
+        <v>333.4227222961023</v>
       </c>
       <c r="O35" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -37390,13 +37390,13 @@
         <v>390.1527797502169</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>186.5450011173479</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37405,7 +37405,7 @@
         <v>390.1527797502169</v>
       </c>
       <c r="Q36" t="n">
-        <v>149.7704685226696</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
         <v>29.85810036629282</v>
@@ -37545,25 +37545,25 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>49.98397370445868</v>
+      </c>
+      <c r="M38" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="P38" t="n">
-        <v>374.3890310734406</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37627,13 +37627,13 @@
         <v>390.1527797502169</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>186.5450011173479</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37642,7 +37642,7 @@
         <v>390.1527797502169</v>
       </c>
       <c r="Q39" t="n">
-        <v>149.7704685226696</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
         <v>29.85810036629282</v>
@@ -37782,10 +37782,10 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
-        <v>390.1527797502169</v>
+        <v>76.66972081352215</v>
       </c>
       <c r="L41" t="n">
-        <v>76.66972081352215</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>390.1527797502169</v>
@@ -37797,7 +37797,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37861,16 +37861,16 @@
         <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L42" t="n">
-        <v>390.1527797502169</v>
+        <v>216.4031014836408</v>
       </c>
       <c r="M42" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>149.7704685226696</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37879,10 +37879,10 @@
         <v>390.1527797502169</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
       <c r="N44" t="n">
-        <v>117.6360295908604</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="O44" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>76.66972081352203</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L45" t="n">
-        <v>390.1527797502169</v>
+        <v>216.4031014836408</v>
       </c>
       <c r="M45" t="n">
-        <v>374.3890310734405</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
